--- a/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9997206700689053</v>
+      </c>
+      <c r="D3">
         <v>1.000069835055996</v>
-      </c>
-      <c r="D3">
-        <v>0.9997206700689053</v>
       </c>
       <c r="E3">
         <v>1.000069835055996</v>
       </c>
       <c r="F3">
-        <v>1.000069835055996</v>
+        <v>0.9997206700689053</v>
       </c>
       <c r="G3">
         <v>1.000186223704231</v>
@@ -755,7 +647,7 @@
         <v>1.000069835055996</v>
       </c>
       <c r="J3">
-        <v>0.9997206700689053</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="K3">
         <v>1.000069835055996</v>
@@ -788,7 +680,7 @@
         <v>0.9999937940580454</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9994607565343674</v>
+      </c>
+      <c r="D4">
         <v>1.000134813930807</v>
-      </c>
-      <c r="D4">
-        <v>0.9994607565343681</v>
       </c>
       <c r="E4">
         <v>1.000134813930807</v>
       </c>
       <c r="F4">
-        <v>1.000134813930807</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="G4">
         <v>1.000359499314318</v>
@@ -817,7 +709,7 @@
         <v>1.000134813930807</v>
       </c>
       <c r="J4">
-        <v>0.9994607565343681</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="K4">
         <v>1.000134813930807</v>
@@ -826,31 +718,31 @@
         <v>1.000134813930807</v>
       </c>
       <c r="M4">
-        <v>0.9997977852325876</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="N4">
-        <v>0.9997977852325876</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="O4">
-        <v>0.9997663278048877</v>
+        <v>0.9997663278048875</v>
       </c>
       <c r="P4">
-        <v>0.9999101281319941</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="Q4">
-        <v>0.9999101281319941</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="R4">
-        <v>0.9999662995816974</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="S4">
-        <v>0.9999662995816974</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="T4">
-        <v>0.999988018431766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999880184317659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9989666086616202</v>
+      </c>
+      <c r="D5">
         <v>1.000258348439586</v>
-      </c>
-      <c r="D5">
-        <v>0.9989666086616202</v>
       </c>
       <c r="E5">
         <v>1.000258348439586</v>
       </c>
       <c r="F5">
-        <v>1.000258348439586</v>
+        <v>0.9989666086616202</v>
       </c>
       <c r="G5">
         <v>1.000688935958332</v>
@@ -879,7 +771,7 @@
         <v>1.000258348439586</v>
       </c>
       <c r="J5">
-        <v>0.9989666086616202</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="K5">
         <v>1.000258348439586</v>
@@ -912,7 +804,7 @@
         <v>0.9999770371157354</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9984843456494917</v>
+      </c>
+      <c r="D6">
         <v>1.000378919608968</v>
-      </c>
-      <c r="D6">
-        <v>0.9984843456494917</v>
       </c>
       <c r="E6">
         <v>1.000378919608968</v>
       </c>
       <c r="F6">
-        <v>1.000378919608968</v>
+        <v>0.9984843456494917</v>
       </c>
       <c r="G6">
         <v>1.00101044281193</v>
@@ -941,7 +833,7 @@
         <v>1.000378919608968</v>
       </c>
       <c r="J6">
-        <v>0.9984843456494917</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="K6">
         <v>1.000378919608968</v>
@@ -974,7 +866,7 @@
         <v>0.9999663214236127</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,16 +874,16 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999786014827008</v>
+      </c>
+      <c r="D7">
         <v>1.000005351962144</v>
-      </c>
-      <c r="D7">
-        <v>0.9999786014827009</v>
       </c>
       <c r="E7">
         <v>1.000005351962144</v>
       </c>
       <c r="F7">
-        <v>1.000005351962144</v>
+        <v>0.9999786014827008</v>
       </c>
       <c r="G7">
         <v>1.000014269279714</v>
@@ -1003,7 +895,7 @@
         <v>1.000005351962144</v>
       </c>
       <c r="J7">
-        <v>0.9999786014827009</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="K7">
         <v>1.000005351962144</v>
@@ -1036,7 +928,7 @@
         <v>0.9999995257611184</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,16 +936,16 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999379876769114</v>
+      </c>
+      <c r="D8">
         <v>1.000015505520613</v>
-      </c>
-      <c r="D8">
-        <v>0.9999379876769114</v>
       </c>
       <c r="E8">
         <v>1.000015505520613</v>
       </c>
       <c r="F8">
-        <v>1.000015505520613</v>
+        <v>0.9999379876769114</v>
       </c>
       <c r="G8">
         <v>1.000041345229595</v>
@@ -1065,7 +957,7 @@
         <v>1.000015505520613</v>
       </c>
       <c r="J8">
-        <v>0.9999379876769114</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="K8">
         <v>1.000015505520613</v>
@@ -1074,31 +966,31 @@
         <v>1.000015505520613</v>
       </c>
       <c r="M8">
-        <v>0.9999767465987621</v>
+        <v>0.9999767465987622</v>
       </c>
       <c r="N8">
-        <v>0.9999767465987621</v>
+        <v>0.9999767465987622</v>
       </c>
       <c r="O8">
-        <v>0.999973127821525</v>
+        <v>0.9999731278215251</v>
       </c>
       <c r="P8">
-        <v>0.999989666239379</v>
+        <v>0.9999896662393791</v>
       </c>
       <c r="Q8">
-        <v>0.999989666239379</v>
+        <v>0.9999896662393791</v>
       </c>
       <c r="R8">
-        <v>0.9999961260596875</v>
+        <v>0.9999961260596877</v>
       </c>
       <c r="S8">
-        <v>0.9999961260596875</v>
+        <v>0.9999961260596877</v>
       </c>
       <c r="T8">
         <v>0.9999986232892327</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.999914431508769</v>
+      </c>
+      <c r="D9">
         <v>1.000021394595544</v>
-      </c>
-      <c r="D9">
-        <v>0.999914431508769</v>
       </c>
       <c r="E9">
         <v>1.000021394595544</v>
       </c>
       <c r="F9">
-        <v>1.000021394595544</v>
+        <v>0.999914431508769</v>
       </c>
       <c r="G9">
         <v>1.000057049295773</v>
       </c>
       <c r="H9">
-        <v>0.9999529345750883</v>
+        <v>0.9999529345750885</v>
       </c>
       <c r="I9">
         <v>1.000021394595544</v>
       </c>
       <c r="J9">
-        <v>0.999914431508769</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="K9">
         <v>1.000021394595544</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999980998610436</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9998150553592617</v>
+      </c>
+      <c r="D10">
         <v>1.000046238172775</v>
-      </c>
-      <c r="D10">
-        <v>0.9998150553592617</v>
       </c>
       <c r="E10">
         <v>1.000046238172775</v>
       </c>
       <c r="F10">
-        <v>1.000046238172775</v>
+        <v>0.9998150553592617</v>
       </c>
       <c r="G10">
         <v>1.000123299907403</v>
@@ -1189,7 +1081,7 @@
         <v>1.000046238172775</v>
       </c>
       <c r="J10">
-        <v>0.9998150553592617</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="K10">
         <v>1.000046238172775</v>
@@ -1222,7 +1114,7 @@
         <v>0.9999958913336732</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9996902881960253</v>
+      </c>
+      <c r="D11">
         <v>1.000077429923335</v>
-      </c>
-      <c r="D11">
-        <v>0.9996902881960253</v>
       </c>
       <c r="E11">
         <v>1.000077429923335</v>
       </c>
       <c r="F11">
-        <v>1.000077429923335</v>
+        <v>0.9996902881960253</v>
       </c>
       <c r="G11">
         <v>1.000206479978124</v>
@@ -1251,7 +1143,7 @@
         <v>1.000077429923335</v>
       </c>
       <c r="J11">
-        <v>0.9996902881960253</v>
+        <v>1.000077429923335</v>
       </c>
       <c r="K11">
         <v>1.000077429923335</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999931189048891</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,16 +1184,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9989053005176629</v>
+        <v>1.0043788021237</v>
       </c>
       <c r="D12">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="E12">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="F12">
         <v>1.0043788021237</v>
-      </c>
-      <c r="E12">
-        <v>0.9989053005176629</v>
-      </c>
-      <c r="F12">
-        <v>0.9989053005176629</v>
       </c>
       <c r="G12">
         <v>0.9970808002566058</v>
@@ -1310,16 +1202,16 @@
         <v>1.002408336125606</v>
       </c>
       <c r="I12">
-        <v>0.9989053005176629</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="J12">
-        <v>1.0043788021237</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="K12">
-        <v>0.9989053005176629</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="L12">
-        <v>0.9989053005176629</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="M12">
         <v>1.001642051320681</v>
@@ -1346,7 +1238,7 @@
         <v>1.000097306676484</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9997161419574134</v>
+        <v>1.001135447453925</v>
       </c>
       <c r="D13">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="E13">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="F13">
         <v>1.001135447453925</v>
       </c>
-      <c r="E13">
-        <v>0.9997161419574134</v>
-      </c>
-      <c r="F13">
-        <v>0.9997161419574134</v>
-      </c>
       <c r="G13">
-        <v>0.9992430441352023</v>
+        <v>0.9992430441352025</v>
       </c>
       <c r="H13">
         <v>1.000624489943478</v>
       </c>
       <c r="I13">
-        <v>0.9997161419574134</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="J13">
-        <v>1.001135447453925</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="K13">
-        <v>0.9997161419574134</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="L13">
-        <v>0.9997161419574134</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="M13">
         <v>1.000425794705669</v>
@@ -1408,7 +1300,7 @@
         <v>1.000025234567474</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,16 +1308,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9965752647255786</v>
+        <v>1.013698937876685</v>
       </c>
       <c r="D14">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="E14">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="F14">
         <v>1.013698937876685</v>
-      </c>
-      <c r="E14">
-        <v>0.9965752647255786</v>
-      </c>
-      <c r="F14">
-        <v>0.9965752647255786</v>
       </c>
       <c r="G14">
         <v>0.990867370997915</v>
@@ -1434,16 +1326,16 @@
         <v>1.007534403626745</v>
       </c>
       <c r="I14">
-        <v>0.9965752647255786</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="J14">
-        <v>1.013698937876685</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="K14">
-        <v>0.9965752647255786</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="L14">
-        <v>0.9965752647255786</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="M14">
         <v>1.005137101301132</v>
@@ -1470,7 +1362,7 @@
         <v>1.00030441777968</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,16 +1370,16 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.003657083884469</v>
+      </c>
+      <c r="D15">
         <v>0.9990857270733903</v>
-      </c>
-      <c r="D15">
-        <v>1.003657083884469</v>
       </c>
       <c r="E15">
         <v>0.9990857270733903</v>
       </c>
       <c r="F15">
-        <v>0.9990857270733903</v>
+        <v>1.003657083884469</v>
       </c>
       <c r="G15">
         <v>0.9975619373064037</v>
@@ -1499,7 +1391,7 @@
         <v>0.9990857270733903</v>
       </c>
       <c r="J15">
-        <v>1.003657083884469</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="K15">
         <v>0.9990857270733903</v>
@@ -1532,7 +1424,7 @@
         <v>1.000081266183602</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000290998619</v>
+        <v>0.9945505884458067</v>
       </c>
       <c r="D16">
-        <v>0.9999988467349655</v>
+        <v>1.001362352726717</v>
       </c>
       <c r="E16">
-        <v>1.000000290998619</v>
+        <v>1.001362352726717</v>
       </c>
       <c r="F16">
-        <v>1.000000290998619</v>
+        <v>0.9945505884458067</v>
       </c>
       <c r="G16">
-        <v>1.000000772579732</v>
+        <v>1.003632940161219</v>
       </c>
       <c r="H16">
-        <v>0.9999993628066466</v>
+        <v>0.9970028171581493</v>
       </c>
       <c r="I16">
-        <v>1.000000290998619</v>
+        <v>1.001362352726717</v>
       </c>
       <c r="J16">
-        <v>0.9999988467349655</v>
+        <v>1.001362352726717</v>
       </c>
       <c r="K16">
-        <v>1.000000290998619</v>
+        <v>1.001362352726717</v>
       </c>
       <c r="L16">
-        <v>1.000000290998619</v>
+        <v>1.001362352726717</v>
       </c>
       <c r="M16">
-        <v>0.9999995688667922</v>
+        <v>0.9979564705862616</v>
       </c>
       <c r="N16">
-        <v>0.9999995688667922</v>
+        <v>0.9979564705862616</v>
       </c>
       <c r="O16">
-        <v>0.9999995001800771</v>
+        <v>0.9976385861102242</v>
       </c>
       <c r="P16">
-        <v>0.9999998095774011</v>
+        <v>0.9990917646330799</v>
       </c>
       <c r="Q16">
-        <v>0.9999998095774011</v>
+        <v>0.9990917646330799</v>
       </c>
       <c r="R16">
-        <v>0.9999999299327056</v>
+        <v>0.9996594116564891</v>
       </c>
       <c r="S16">
-        <v>0.9999999299327056</v>
+        <v>0.9996594116564891</v>
       </c>
       <c r="T16">
-        <v>0.9999999758528668</v>
+        <v>0.9998789006575541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000006109607833</v>
+        <v>0.9955374399433708</v>
       </c>
       <c r="D17">
-        <v>0.9999755721867944</v>
+        <v>1.001115641010163</v>
       </c>
       <c r="E17">
-        <v>1.000006109607833</v>
+        <v>1.001115641010163</v>
       </c>
       <c r="F17">
-        <v>1.000006109607833</v>
+        <v>0.9955374399433708</v>
       </c>
       <c r="G17">
-        <v>1.0000162891612</v>
+        <v>1.002975041279093</v>
       </c>
       <c r="H17">
-        <v>0.9999865619389987</v>
+        <v>0.997545586876089</v>
       </c>
       <c r="I17">
-        <v>1.000006109607833</v>
+        <v>1.001115641010163</v>
       </c>
       <c r="J17">
-        <v>0.9999755721867944</v>
+        <v>1.001115641010163</v>
       </c>
       <c r="K17">
-        <v>1.000006109607833</v>
+        <v>1.001115641010163</v>
       </c>
       <c r="L17">
-        <v>1.000006109607833</v>
+        <v>1.001115641010163</v>
       </c>
       <c r="M17">
-        <v>0.9999908408973138</v>
+        <v>0.9983265404767669</v>
       </c>
       <c r="N17">
-        <v>0.9999908408973138</v>
+        <v>0.9983265404767669</v>
       </c>
       <c r="O17">
-        <v>0.9999894145778754</v>
+        <v>0.9980662226098742</v>
       </c>
       <c r="P17">
-        <v>0.9999959304674869</v>
+        <v>0.9992562406545656</v>
       </c>
       <c r="Q17">
-        <v>0.9999959304674869</v>
+        <v>0.9992562406545656</v>
       </c>
       <c r="R17">
-        <v>0.9999984752525735</v>
+        <v>0.999721090743465</v>
       </c>
       <c r="S17">
-        <v>0.9999984752525735</v>
+        <v>0.999721090743465</v>
       </c>
       <c r="T17">
-        <v>0.9999994586850821</v>
+        <v>0.9999008318548404</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000021505469089</v>
+        <v>0.9975156178978601</v>
       </c>
       <c r="D18">
-        <v>0.9999139980085786</v>
+        <v>1.000621099817564</v>
       </c>
       <c r="E18">
-        <v>1.000021505469089</v>
+        <v>1.000621099817564</v>
       </c>
       <c r="F18">
-        <v>1.000021505469089</v>
+        <v>0.9975156178978601</v>
       </c>
       <c r="G18">
-        <v>1.000057338934098</v>
+        <v>1.001656259932717</v>
       </c>
       <c r="H18">
-        <v>0.9999526944866547</v>
+        <v>0.9986335879226074</v>
       </c>
       <c r="I18">
-        <v>1.000021505469089</v>
+        <v>1.000621099817564</v>
       </c>
       <c r="J18">
-        <v>0.9999139980085786</v>
+        <v>1.000621099817564</v>
       </c>
       <c r="K18">
-        <v>1.000021505469089</v>
+        <v>1.000621099817564</v>
       </c>
       <c r="L18">
-        <v>1.000021505469089</v>
+        <v>1.000621099817564</v>
       </c>
       <c r="M18">
-        <v>0.9999677517388337</v>
+        <v>0.9990683588577118</v>
       </c>
       <c r="N18">
-        <v>0.9999677517388337</v>
+        <v>0.9990683588577118</v>
       </c>
       <c r="O18">
-        <v>0.9999627326547741</v>
+        <v>0.998923435212677</v>
       </c>
       <c r="P18">
-        <v>0.9999856696489187</v>
+        <v>0.9995859391776625</v>
       </c>
       <c r="Q18">
-        <v>0.9999856696489187</v>
+        <v>0.9995859391776625</v>
       </c>
       <c r="R18">
-        <v>0.9999946286039612</v>
+        <v>0.9998447293376378</v>
       </c>
       <c r="S18">
-        <v>0.9999946286039612</v>
+        <v>0.9998447293376378</v>
       </c>
       <c r="T18">
-        <v>0.9999980913060996</v>
+        <v>0.9999447942009793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.997231229109045</v>
+      </c>
+      <c r="D19">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="E19">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="F19">
+        <v>0.997231229109045</v>
+      </c>
+      <c r="G19">
+        <v>1.001845854686046</v>
+      </c>
+      <c r="H19">
+        <v>0.9984771751664028</v>
+      </c>
+      <c r="I19">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="J19">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="K19">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="L19">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="M19">
+        <v>0.9989617125603382</v>
+      </c>
+      <c r="N19">
+        <v>0.9989617125603382</v>
+      </c>
+      <c r="O19">
+        <v>0.998800200095693</v>
+      </c>
+      <c r="P19">
+        <v>0.9995385403774358</v>
+      </c>
+      <c r="Q19">
+        <v>0.9995385403774358</v>
+      </c>
+      <c r="R19">
+        <v>0.9998269542859847</v>
+      </c>
+      <c r="S19">
+        <v>0.9998269542859847</v>
+      </c>
+      <c r="T19">
+        <v>0.9999384744993979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999988467349655</v>
+      </c>
+      <c r="D20">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="E20">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="F20">
+        <v>0.9999988467349655</v>
+      </c>
+      <c r="G20">
+        <v>1.000000772579732</v>
+      </c>
+      <c r="H20">
+        <v>0.9999993628066467</v>
+      </c>
+      <c r="I20">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="J20">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="K20">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="L20">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="M20">
+        <v>0.9999995688667922</v>
+      </c>
+      <c r="N20">
+        <v>0.9999995688667922</v>
+      </c>
+      <c r="O20">
+        <v>0.9999995001800771</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998095774011</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999998095774011</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999299327056</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999299327056</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999758528668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999755721867947</v>
+      </c>
+      <c r="D21">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="E21">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="F21">
+        <v>0.9999755721867947</v>
+      </c>
+      <c r="G21">
+        <v>1.0000162891612</v>
+      </c>
+      <c r="H21">
+        <v>0.9999865619389987</v>
+      </c>
+      <c r="I21">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="J21">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="K21">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="L21">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="M21">
+        <v>0.9999908408973139</v>
+      </c>
+      <c r="N21">
+        <v>0.9999908408973139</v>
+      </c>
+      <c r="O21">
+        <v>0.9999894145778755</v>
+      </c>
+      <c r="P21">
+        <v>0.9999959304674869</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999959304674869</v>
+      </c>
+      <c r="R21">
+        <v>0.9999984752525735</v>
+      </c>
+      <c r="S21">
+        <v>0.9999984752525735</v>
+      </c>
+      <c r="T21">
+        <v>0.9999994586850821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999139980085787</v>
+      </c>
+      <c r="D22">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="E22">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="F22">
+        <v>0.9999139980085787</v>
+      </c>
+      <c r="G22">
+        <v>1.000057338934098</v>
+      </c>
+      <c r="H22">
+        <v>0.999952694486655</v>
+      </c>
+      <c r="I22">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="J22">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="K22">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="L22">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="M22">
+        <v>0.9999677517388337</v>
+      </c>
+      <c r="N22">
+        <v>0.9999677517388337</v>
+      </c>
+      <c r="O22">
+        <v>0.9999627326547742</v>
+      </c>
+      <c r="P22">
+        <v>0.9999856696489187</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999856696489187</v>
+      </c>
+      <c r="R22">
+        <v>0.9999946286039612</v>
+      </c>
+      <c r="S22">
+        <v>0.9999946286039612</v>
+      </c>
+      <c r="T22">
+        <v>0.9999980913060996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997985200528525</v>
+      </c>
+      <c r="D23">
         <v>1.000050372258046</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.000050372258046</v>
+      </c>
+      <c r="F23">
         <v>0.9997985200528525</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.000134326000111</v>
+      </c>
+      <c r="H23">
+        <v>0.9998891848892675</v>
+      </c>
+      <c r="I23">
         <v>1.000050372258046</v>
       </c>
-      <c r="F19">
+      <c r="J23">
         <v>1.000050372258046</v>
       </c>
-      <c r="G19">
-        <v>1.000134326000111</v>
-      </c>
-      <c r="H19">
-        <v>0.9998891848892675</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000050372258046</v>
       </c>
-      <c r="J19">
-        <v>0.9997985200528525</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000050372258046</v>
       </c>
-      <c r="L19">
-        <v>1.000050372258046</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999244461554491</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999244461554491</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9999126924000552</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999664215229812</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999664215229812</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999874092067473</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999874092067473</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999955246193947</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9997206700689053</v>
+        <v>0.9968818568587916</v>
       </c>
       <c r="D3">
-        <v>1.000069835055996</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="E3">
-        <v>1.000069835055996</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="F3">
-        <v>0.9997206700689053</v>
+        <v>0.9968818568587916</v>
       </c>
       <c r="G3">
-        <v>1.000186223704231</v>
+        <v>1.002078768645533</v>
       </c>
       <c r="H3">
-        <v>0.9998463654071472</v>
+        <v>0.9982850190922193</v>
       </c>
       <c r="I3">
-        <v>1.000069835055996</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="J3">
-        <v>1.000069835055996</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="K3">
-        <v>1.000069835055996</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="L3">
-        <v>1.000069835055996</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="M3">
-        <v>0.9998952525624509</v>
+        <v>0.9988306979106641</v>
       </c>
       <c r="N3">
-        <v>0.9998952525624509</v>
+        <v>0.9988306979106641</v>
       </c>
       <c r="O3">
-        <v>0.9998789568440163</v>
+        <v>0.9986488049711825</v>
       </c>
       <c r="P3">
-        <v>0.9999534467269662</v>
+        <v>0.9994803115946217</v>
       </c>
       <c r="Q3">
-        <v>0.9999534467269662</v>
+        <v>0.9994803115946217</v>
       </c>
       <c r="R3">
-        <v>0.9999825438092238</v>
+        <v>0.9998051184366004</v>
       </c>
       <c r="S3">
-        <v>0.9999825438092238</v>
+        <v>0.9998051184366004</v>
       </c>
       <c r="T3">
-        <v>0.9999937940580454</v>
+        <v>0.999930710247359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9994607565343674</v>
+        <v>0.9972255093924705</v>
       </c>
       <c r="D4">
-        <v>1.000134813930807</v>
+        <v>1.00069362590384</v>
       </c>
       <c r="E4">
-        <v>1.000134813930807</v>
+        <v>1.00069362590384</v>
       </c>
       <c r="F4">
-        <v>0.9994607565343674</v>
+        <v>0.9972255093924705</v>
       </c>
       <c r="G4">
-        <v>1.000359499314318</v>
+        <v>1.001849666373462</v>
       </c>
       <c r="H4">
-        <v>0.9997034129494882</v>
+        <v>0.9984740279202416</v>
       </c>
       <c r="I4">
-        <v>1.000134813930807</v>
+        <v>1.00069362590384</v>
       </c>
       <c r="J4">
-        <v>1.000134813930807</v>
+        <v>1.00069362590384</v>
       </c>
       <c r="K4">
-        <v>1.000134813930807</v>
+        <v>1.00069362590384</v>
       </c>
       <c r="L4">
-        <v>1.000134813930807</v>
+        <v>1.00069362590384</v>
       </c>
       <c r="M4">
-        <v>0.9997977852325872</v>
+        <v>0.9989595676481551</v>
       </c>
       <c r="N4">
-        <v>0.9997977852325872</v>
+        <v>0.9989595676481551</v>
       </c>
       <c r="O4">
-        <v>0.9997663278048875</v>
+        <v>0.9987977210721839</v>
       </c>
       <c r="P4">
-        <v>0.9999101281319938</v>
+        <v>0.9995375870667166</v>
       </c>
       <c r="Q4">
-        <v>0.9999101281319938</v>
+        <v>0.9995375870667166</v>
       </c>
       <c r="R4">
-        <v>0.9999662995816971</v>
+        <v>0.9998265967759974</v>
       </c>
       <c r="S4">
-        <v>0.9999662995816971</v>
+        <v>0.9998265967759974</v>
       </c>
       <c r="T4">
-        <v>0.9999880184317659</v>
+        <v>0.9999383468996155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9989666086616202</v>
+        <v>0.9962321034231792</v>
       </c>
       <c r="D5">
-        <v>1.000258348439586</v>
+        <v>1.000941978921832</v>
       </c>
       <c r="E5">
-        <v>1.000258348439586</v>
+        <v>1.000941978921832</v>
       </c>
       <c r="F5">
-        <v>0.9989666086616202</v>
+        <v>0.9962321034231792</v>
       </c>
       <c r="G5">
-        <v>1.000688935958332</v>
+        <v>1.002511941185984</v>
       </c>
       <c r="H5">
-        <v>0.9994316327557028</v>
+        <v>0.9979276574393534</v>
       </c>
       <c r="I5">
-        <v>1.000258348439586</v>
+        <v>1.000941978921832</v>
       </c>
       <c r="J5">
-        <v>1.000258348439586</v>
+        <v>1.000941978921832</v>
       </c>
       <c r="K5">
-        <v>1.000258348439586</v>
+        <v>1.000941978921832</v>
       </c>
       <c r="L5">
-        <v>1.000258348439586</v>
+        <v>1.000941978921832</v>
       </c>
       <c r="M5">
-        <v>0.999612478550603</v>
+        <v>0.9985870411725057</v>
       </c>
       <c r="N5">
-        <v>0.999612478550603</v>
+        <v>0.9985870411725057</v>
       </c>
       <c r="O5">
-        <v>0.9995521966189695</v>
+        <v>0.9983672465947883</v>
       </c>
       <c r="P5">
-        <v>0.9998277685135971</v>
+        <v>0.9993720204222812</v>
       </c>
       <c r="Q5">
-        <v>0.9998277685135971</v>
+        <v>0.9993720204222812</v>
       </c>
       <c r="R5">
-        <v>0.9999354134950943</v>
+        <v>0.999764510047169</v>
       </c>
       <c r="S5">
-        <v>0.9999354134950943</v>
+        <v>0.999764510047169</v>
       </c>
       <c r="T5">
-        <v>0.9999770371157354</v>
+        <v>0.999916273135669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9984843456494917</v>
+        <v>0.9956288430681814</v>
       </c>
       <c r="D6">
-        <v>1.000378919608968</v>
+        <v>1.001092790681817</v>
       </c>
       <c r="E6">
-        <v>1.000378919608968</v>
+        <v>1.001092790681817</v>
       </c>
       <c r="F6">
-        <v>0.9984843456494917</v>
+        <v>0.9956288430681814</v>
       </c>
       <c r="G6">
-        <v>1.00101044281193</v>
+        <v>1.002914112954545</v>
       </c>
       <c r="H6">
-        <v>0.9991663812533509</v>
+        <v>0.9975958657954549</v>
       </c>
       <c r="I6">
-        <v>1.000378919608968</v>
+        <v>1.001092790681817</v>
       </c>
       <c r="J6">
-        <v>1.000378919608968</v>
+        <v>1.001092790681817</v>
       </c>
       <c r="K6">
-        <v>1.000378919608968</v>
+        <v>1.001092790681817</v>
       </c>
       <c r="L6">
-        <v>1.000378919608968</v>
+        <v>1.001092790681817</v>
       </c>
       <c r="M6">
-        <v>0.9994316326292298</v>
+        <v>0.9983608168749994</v>
       </c>
       <c r="N6">
-        <v>0.9994316326292298</v>
+        <v>0.9983608168749994</v>
       </c>
       <c r="O6">
-        <v>0.9993432155039369</v>
+        <v>0.9981058331818179</v>
       </c>
       <c r="P6">
-        <v>0.9997473949558092</v>
+        <v>0.9992714748106054</v>
       </c>
       <c r="Q6">
-        <v>0.9997473949558092</v>
+        <v>0.9992714748106054</v>
       </c>
       <c r="R6">
-        <v>0.999905276119099</v>
+        <v>0.9997268037784084</v>
       </c>
       <c r="S6">
-        <v>0.999905276119099</v>
+        <v>0.9997268037784084</v>
       </c>
       <c r="T6">
-        <v>0.9999663214236127</v>
+        <v>0.9999028656439389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999786014827008</v>
+        <v>0.982808409999998</v>
       </c>
       <c r="D7">
-        <v>1.000005351962144</v>
+        <v>1.004297900000003</v>
       </c>
       <c r="E7">
-        <v>1.000005351962144</v>
+        <v>1.004297900000003</v>
       </c>
       <c r="F7">
-        <v>0.9999786014827008</v>
+        <v>0.982808409999998</v>
       </c>
       <c r="G7">
-        <v>1.000014269279714</v>
+        <v>1.01146110000001</v>
       </c>
       <c r="H7">
-        <v>0.9999882279178615</v>
+        <v>0.9905446300000036</v>
       </c>
       <c r="I7">
-        <v>1.000005351962144</v>
+        <v>1.004297900000003</v>
       </c>
       <c r="J7">
-        <v>1.000005351962144</v>
+        <v>1.004297900000003</v>
       </c>
       <c r="K7">
-        <v>1.000005351962144</v>
+        <v>1.004297900000003</v>
       </c>
       <c r="L7">
-        <v>1.000005351962144</v>
+        <v>1.004297900000003</v>
       </c>
       <c r="M7">
-        <v>0.9999919767224226</v>
+        <v>0.9935531550000005</v>
       </c>
       <c r="N7">
-        <v>0.9999919767224226</v>
+        <v>0.9935531550000005</v>
       </c>
       <c r="O7">
-        <v>0.9999907271209022</v>
+        <v>0.9925503133333349</v>
       </c>
       <c r="P7">
-        <v>0.9999964351356633</v>
+        <v>0.9971347366666681</v>
       </c>
       <c r="Q7">
-        <v>0.9999964351356633</v>
+        <v>0.9971347366666681</v>
       </c>
       <c r="R7">
-        <v>0.9999986643422836</v>
+        <v>0.9989255275000019</v>
       </c>
       <c r="S7">
-        <v>0.9999986643422836</v>
+        <v>0.9989255275000019</v>
       </c>
       <c r="T7">
-        <v>0.9999995257611184</v>
+        <v>0.9996179733333367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999379876769114</v>
+        <v>0.9828084099999981</v>
       </c>
       <c r="D8">
-        <v>1.000015505520613</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="E8">
-        <v>1.000015505520613</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="F8">
-        <v>0.9999379876769114</v>
+        <v>0.9828084099999981</v>
       </c>
       <c r="G8">
-        <v>1.000041345229595</v>
+        <v>1.011461100000005</v>
       </c>
       <c r="H8">
-        <v>0.9999658902670508</v>
+        <v>0.9905446300000033</v>
       </c>
       <c r="I8">
-        <v>1.000015505520613</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="J8">
-        <v>1.000015505520613</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="K8">
-        <v>1.000015505520613</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="L8">
-        <v>1.000015505520613</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="M8">
-        <v>0.9999767465987622</v>
+        <v>0.993553154999996</v>
       </c>
       <c r="N8">
-        <v>0.9999767465987622</v>
+        <v>0.993553154999996</v>
       </c>
       <c r="O8">
-        <v>0.9999731278215251</v>
+        <v>0.9925503133333318</v>
       </c>
       <c r="P8">
-        <v>0.9999896662393791</v>
+        <v>0.9971347366666619</v>
       </c>
       <c r="Q8">
-        <v>0.9999896662393791</v>
+        <v>0.9971347366666619</v>
       </c>
       <c r="R8">
-        <v>0.9999961260596877</v>
+        <v>0.9989255274999949</v>
       </c>
       <c r="S8">
-        <v>0.9999961260596877</v>
+        <v>0.9989255274999949</v>
       </c>
       <c r="T8">
-        <v>0.9999986232892327</v>
+        <v>0.9996179733333311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999914431508769</v>
+        <v>0.9828084099999982</v>
       </c>
       <c r="D9">
-        <v>1.000021394595544</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="E9">
-        <v>1.000021394595544</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="F9">
-        <v>0.999914431508769</v>
+        <v>0.9828084099999982</v>
       </c>
       <c r="G9">
-        <v>1.000057049295773</v>
+        <v>1.011461099999998</v>
       </c>
       <c r="H9">
-        <v>0.9999529345750885</v>
+        <v>0.9905446300000026</v>
       </c>
       <c r="I9">
-        <v>1.000021394595544</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="J9">
-        <v>1.000021394595544</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="K9">
-        <v>1.000021394595544</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="L9">
-        <v>1.000021394595544</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="M9">
-        <v>0.9999679130521564</v>
+        <v>0.9935531549999996</v>
       </c>
       <c r="N9">
-        <v>0.9999679130521564</v>
+        <v>0.9935531549999996</v>
       </c>
       <c r="O9">
-        <v>0.999962920226467</v>
+        <v>0.992550313333334</v>
       </c>
       <c r="P9">
-        <v>0.9999857402332855</v>
+        <v>0.9971347366666669</v>
       </c>
       <c r="Q9">
-        <v>0.9999857402332855</v>
+        <v>0.9971347366666669</v>
       </c>
       <c r="R9">
-        <v>0.99999465382385</v>
+        <v>0.9989255275000004</v>
       </c>
       <c r="S9">
-        <v>0.99999465382385</v>
+        <v>0.9989255275000004</v>
       </c>
       <c r="T9">
-        <v>0.9999980998610436</v>
+        <v>0.9996179733333337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998150553592617</v>
+        <v>0.9828084099999985</v>
       </c>
       <c r="D10">
-        <v>1.000046238172775</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="E10">
-        <v>1.000046238172775</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="F10">
-        <v>0.9998150553592617</v>
+        <v>0.9828084099999985</v>
       </c>
       <c r="G10">
-        <v>1.000123299907403</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H10">
-        <v>0.9998982782170487</v>
+        <v>0.9905446300000014</v>
       </c>
       <c r="I10">
-        <v>1.000046238172775</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="J10">
-        <v>1.000046238172775</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="K10">
-        <v>1.000046238172775</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="L10">
-        <v>1.000046238172775</v>
+        <v>1.004297900000001</v>
       </c>
       <c r="M10">
-        <v>0.9999306467660185</v>
+        <v>0.9935531549999997</v>
       </c>
       <c r="N10">
-        <v>0.9999306467660185</v>
+        <v>0.9935531549999997</v>
       </c>
       <c r="O10">
-        <v>0.9999198572496951</v>
+        <v>0.9925503133333337</v>
       </c>
       <c r="P10">
-        <v>0.9999691772349374</v>
+        <v>0.9971347366666669</v>
       </c>
       <c r="Q10">
-        <v>0.9999691772349374</v>
+        <v>0.9971347366666669</v>
       </c>
       <c r="R10">
-        <v>0.9999884424693968</v>
+        <v>0.9989255275000004</v>
       </c>
       <c r="S10">
-        <v>0.9999884424693968</v>
+        <v>0.9989255275000004</v>
       </c>
       <c r="T10">
-        <v>0.9999958913336732</v>
+        <v>0.9996179733333337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9996902881960253</v>
+        <v>0.9996336239025042</v>
       </c>
       <c r="D11">
-        <v>1.000077429923335</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="E11">
-        <v>1.000077429923335</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="F11">
-        <v>0.9996902881960253</v>
+        <v>0.9996336239025042</v>
       </c>
       <c r="G11">
-        <v>1.000206479978124</v>
+        <v>1.00024425504969</v>
       </c>
       <c r="H11">
-        <v>0.999829655485182</v>
+        <v>0.9997984899703968</v>
       </c>
       <c r="I11">
-        <v>1.000077429923335</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="J11">
-        <v>1.000077429923335</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="K11">
-        <v>1.000077429923335</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="L11">
-        <v>1.000077429923335</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="M11">
-        <v>0.9998838590596799</v>
+        <v>0.9998626102858765</v>
       </c>
       <c r="N11">
-        <v>0.9998838590596799</v>
+        <v>0.9998626102858765</v>
       </c>
       <c r="O11">
-        <v>0.9998657912015139</v>
+        <v>0.9998412368473834</v>
       </c>
       <c r="P11">
-        <v>0.999948382680898</v>
+        <v>0.999938939080334</v>
       </c>
       <c r="Q11">
-        <v>0.999948382680898</v>
+        <v>0.999938939080334</v>
       </c>
       <c r="R11">
-        <v>0.9999806444915071</v>
+        <v>0.9999771034775627</v>
       </c>
       <c r="S11">
-        <v>0.9999806444915071</v>
+        <v>0.9999771034775627</v>
       </c>
       <c r="T11">
-        <v>0.9999931189048891</v>
+        <v>0.9999918598217228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.0043788021237</v>
+        <v>0.9997773238202753</v>
       </c>
       <c r="D12">
-        <v>0.9989053005176631</v>
+        <v>1.000055671517803</v>
       </c>
       <c r="E12">
-        <v>0.9989053005176631</v>
+        <v>1.000055671517803</v>
       </c>
       <c r="F12">
-        <v>1.0043788021237</v>
+        <v>0.9997773238202753</v>
       </c>
       <c r="G12">
-        <v>0.9970808002566058</v>
+        <v>1.000148454543081</v>
       </c>
       <c r="H12">
-        <v>1.002408336125606</v>
+        <v>0.9998775251538474</v>
       </c>
       <c r="I12">
-        <v>0.9989053005176631</v>
+        <v>1.000055671517803</v>
       </c>
       <c r="J12">
-        <v>0.9989053005176631</v>
+        <v>1.000055671517803</v>
       </c>
       <c r="K12">
-        <v>0.9989053005176631</v>
+        <v>1.000055671517803</v>
       </c>
       <c r="L12">
-        <v>0.9989053005176631</v>
+        <v>1.000055671517803</v>
       </c>
       <c r="M12">
-        <v>1.001642051320681</v>
+        <v>0.9999164976690391</v>
       </c>
       <c r="N12">
-        <v>1.001642051320681</v>
+        <v>0.9999164976690391</v>
       </c>
       <c r="O12">
-        <v>1.00189747958899</v>
+        <v>0.9999035068306418</v>
       </c>
       <c r="P12">
-        <v>1.000729801053009</v>
+        <v>0.9999628889519604</v>
       </c>
       <c r="Q12">
-        <v>1.000729801053009</v>
+        <v>0.9999628889519604</v>
       </c>
       <c r="R12">
-        <v>1.000273675919172</v>
+        <v>0.999986084593421</v>
       </c>
       <c r="S12">
-        <v>1.000273675919172</v>
+        <v>0.999986084593421</v>
       </c>
       <c r="T12">
-        <v>1.000097306676484</v>
+        <v>0.9999950530117688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001135447453925</v>
+        <v>0.9992562399021847</v>
       </c>
       <c r="D13">
-        <v>0.9997161419574135</v>
+        <v>1.000185942734433</v>
       </c>
       <c r="E13">
-        <v>0.9997161419574135</v>
+        <v>1.000185942734433</v>
       </c>
       <c r="F13">
-        <v>1.001135447453925</v>
+        <v>0.9992562399021847</v>
       </c>
       <c r="G13">
-        <v>0.9992430441352025</v>
+        <v>1.000495845960025</v>
       </c>
       <c r="H13">
-        <v>1.000624489943478</v>
+        <v>0.9995909312556236</v>
       </c>
       <c r="I13">
-        <v>0.9997161419574135</v>
+        <v>1.000185942734433</v>
       </c>
       <c r="J13">
-        <v>0.9997161419574135</v>
+        <v>1.000185942734433</v>
       </c>
       <c r="K13">
-        <v>0.9997161419574135</v>
+        <v>1.000185942734433</v>
       </c>
       <c r="L13">
-        <v>0.9997161419574135</v>
+        <v>1.000185942734433</v>
       </c>
       <c r="M13">
-        <v>1.000425794705669</v>
+        <v>0.999721091318309</v>
       </c>
       <c r="N13">
-        <v>1.000425794705669</v>
+        <v>0.999721091318309</v>
       </c>
       <c r="O13">
-        <v>1.000492026451606</v>
+        <v>0.9996777046307472</v>
       </c>
       <c r="P13">
-        <v>1.000189243789584</v>
+        <v>0.9998760417903504</v>
       </c>
       <c r="Q13">
-        <v>1.000189243789584</v>
+        <v>0.9998760417903504</v>
       </c>
       <c r="R13">
-        <v>1.000070968331541</v>
+        <v>0.9999535170263711</v>
       </c>
       <c r="S13">
-        <v>1.000070968331541</v>
+        <v>0.9999535170263711</v>
       </c>
       <c r="T13">
-        <v>1.000025234567474</v>
+        <v>0.9999834742201887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.013698937876685</v>
+        <v>0.9992172353475859</v>
       </c>
       <c r="D14">
-        <v>0.9965752647255784</v>
+        <v>1.000195694851676</v>
       </c>
       <c r="E14">
-        <v>0.9965752647255784</v>
+        <v>1.000195694851676</v>
       </c>
       <c r="F14">
-        <v>1.013698937876685</v>
+        <v>0.9992172353475859</v>
       </c>
       <c r="G14">
-        <v>0.990867370997915</v>
+        <v>1.000521847963239</v>
       </c>
       <c r="H14">
-        <v>1.007534403626745</v>
+        <v>0.9995694767609815</v>
       </c>
       <c r="I14">
-        <v>0.9965752647255784</v>
+        <v>1.000195694851676</v>
       </c>
       <c r="J14">
-        <v>0.9965752647255784</v>
+        <v>1.000195694851676</v>
       </c>
       <c r="K14">
-        <v>0.9965752647255784</v>
+        <v>1.000195694851676</v>
       </c>
       <c r="L14">
-        <v>0.9965752647255784</v>
+        <v>1.000195694851676</v>
       </c>
       <c r="M14">
-        <v>1.005137101301132</v>
+        <v>0.9997064650996311</v>
       </c>
       <c r="N14">
-        <v>1.005137101301132</v>
+        <v>0.9997064650996311</v>
       </c>
       <c r="O14">
-        <v>1.005936202076336</v>
+        <v>0.9996608023200814</v>
       </c>
       <c r="P14">
-        <v>1.002283155775947</v>
+        <v>0.9998695416836462</v>
       </c>
       <c r="Q14">
-        <v>1.002283155775947</v>
+        <v>0.9998695416836462</v>
       </c>
       <c r="R14">
-        <v>1.000856183013355</v>
+        <v>0.9999510799756537</v>
       </c>
       <c r="S14">
-        <v>1.000856183013355</v>
+        <v>0.9999510799756537</v>
       </c>
       <c r="T14">
-        <v>1.00030441777968</v>
+        <v>0.9999826074378059</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003657083884469</v>
+        <v>0.9997206700689053</v>
       </c>
       <c r="D15">
-        <v>0.9990857270733903</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="E15">
-        <v>0.9990857270733903</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="F15">
-        <v>1.003657083884469</v>
+        <v>0.9997206700689053</v>
       </c>
       <c r="G15">
-        <v>0.9975619373064037</v>
+        <v>1.000186223704231</v>
       </c>
       <c r="H15">
-        <v>1.002011394690566</v>
+        <v>0.9998463654071472</v>
       </c>
       <c r="I15">
-        <v>0.9990857270733903</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="J15">
-        <v>0.9990857270733903</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="K15">
-        <v>0.9990857270733903</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="L15">
-        <v>0.9990857270733903</v>
+        <v>1.000069835055996</v>
       </c>
       <c r="M15">
-        <v>1.00137140547893</v>
+        <v>0.9998952525624509</v>
       </c>
       <c r="N15">
-        <v>1.00137140547893</v>
+        <v>0.9998952525624509</v>
       </c>
       <c r="O15">
-        <v>1.001584735216142</v>
+        <v>0.9998789568440163</v>
       </c>
       <c r="P15">
-        <v>1.000609512677083</v>
+        <v>0.9999534467269662</v>
       </c>
       <c r="Q15">
-        <v>1.000609512677083</v>
+        <v>0.9999534467269662</v>
       </c>
       <c r="R15">
-        <v>1.00022856627616</v>
+        <v>0.9999825438092238</v>
       </c>
       <c r="S15">
-        <v>1.00022856627616</v>
+        <v>0.9999825438092238</v>
       </c>
       <c r="T15">
-        <v>1.000081266183602</v>
+        <v>0.9999937940580454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9945505884458067</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="D16">
-        <v>1.001362352726717</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="E16">
-        <v>1.001362352726717</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="F16">
-        <v>0.9945505884458067</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="G16">
-        <v>1.003632940161219</v>
+        <v>1.000359499314318</v>
       </c>
       <c r="H16">
-        <v>0.9970028171581493</v>
+        <v>0.9997034129494882</v>
       </c>
       <c r="I16">
-        <v>1.001362352726717</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="J16">
-        <v>1.001362352726717</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="K16">
-        <v>1.001362352726717</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="L16">
-        <v>1.001362352726717</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="M16">
-        <v>0.9979564705862616</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="N16">
-        <v>0.9979564705862616</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="O16">
-        <v>0.9976385861102242</v>
+        <v>0.9997663278048875</v>
       </c>
       <c r="P16">
-        <v>0.9990917646330799</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="Q16">
-        <v>0.9990917646330799</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="R16">
-        <v>0.9996594116564891</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="S16">
-        <v>0.9996594116564891</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="T16">
-        <v>0.9998789006575541</v>
+        <v>0.9999880184317659</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9955374399433708</v>
+        <v>0.9989666086616202</v>
       </c>
       <c r="D17">
-        <v>1.001115641010163</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="E17">
-        <v>1.001115641010163</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="F17">
-        <v>0.9955374399433708</v>
+        <v>0.9989666086616202</v>
       </c>
       <c r="G17">
-        <v>1.002975041279093</v>
+        <v>1.000688935958332</v>
       </c>
       <c r="H17">
-        <v>0.997545586876089</v>
+        <v>0.9994316327557028</v>
       </c>
       <c r="I17">
-        <v>1.001115641010163</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="J17">
-        <v>1.001115641010163</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="K17">
-        <v>1.001115641010163</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="L17">
-        <v>1.001115641010163</v>
+        <v>1.000258348439586</v>
       </c>
       <c r="M17">
-        <v>0.9983265404767669</v>
+        <v>0.999612478550603</v>
       </c>
       <c r="N17">
-        <v>0.9983265404767669</v>
+        <v>0.999612478550603</v>
       </c>
       <c r="O17">
-        <v>0.9980662226098742</v>
+        <v>0.9995521966189695</v>
       </c>
       <c r="P17">
-        <v>0.9992562406545656</v>
+        <v>0.9998277685135971</v>
       </c>
       <c r="Q17">
-        <v>0.9992562406545656</v>
+        <v>0.9998277685135971</v>
       </c>
       <c r="R17">
-        <v>0.999721090743465</v>
+        <v>0.9999354134950943</v>
       </c>
       <c r="S17">
-        <v>0.999721090743465</v>
+        <v>0.9999354134950943</v>
       </c>
       <c r="T17">
-        <v>0.9999008318548404</v>
+        <v>0.9999770371157354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9975156178978601</v>
+        <v>0.9984843456494917</v>
       </c>
       <c r="D18">
-        <v>1.000621099817564</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="E18">
-        <v>1.000621099817564</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="F18">
-        <v>0.9975156178978601</v>
+        <v>0.9984843456494917</v>
       </c>
       <c r="G18">
-        <v>1.001656259932717</v>
+        <v>1.00101044281193</v>
       </c>
       <c r="H18">
-        <v>0.9986335879226074</v>
+        <v>0.9991663812533509</v>
       </c>
       <c r="I18">
-        <v>1.000621099817564</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="J18">
-        <v>1.000621099817564</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="K18">
-        <v>1.000621099817564</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="L18">
-        <v>1.000621099817564</v>
+        <v>1.000378919608968</v>
       </c>
       <c r="M18">
-        <v>0.9990683588577118</v>
+        <v>0.9994316326292298</v>
       </c>
       <c r="N18">
-        <v>0.9990683588577118</v>
+        <v>0.9994316326292298</v>
       </c>
       <c r="O18">
-        <v>0.998923435212677</v>
+        <v>0.9993432155039369</v>
       </c>
       <c r="P18">
-        <v>0.9995859391776625</v>
+        <v>0.9997473949558092</v>
       </c>
       <c r="Q18">
-        <v>0.9995859391776625</v>
+        <v>0.9997473949558092</v>
       </c>
       <c r="R18">
-        <v>0.9998447293376378</v>
+        <v>0.999905276119099</v>
       </c>
       <c r="S18">
-        <v>0.9998447293376378</v>
+        <v>0.999905276119099</v>
       </c>
       <c r="T18">
-        <v>0.9999447942009793</v>
+        <v>0.9999663214236127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.997231229109045</v>
+        <v>0.9999786014827008</v>
       </c>
       <c r="D19">
-        <v>1.000692196011631</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="E19">
-        <v>1.000692196011631</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="F19">
-        <v>0.997231229109045</v>
+        <v>0.9999786014827008</v>
       </c>
       <c r="G19">
-        <v>1.001845854686046</v>
+        <v>1.000014269279714</v>
       </c>
       <c r="H19">
-        <v>0.9984771751664028</v>
+        <v>0.9999882279178615</v>
       </c>
       <c r="I19">
-        <v>1.000692196011631</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="J19">
-        <v>1.000692196011631</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="K19">
-        <v>1.000692196011631</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="L19">
-        <v>1.000692196011631</v>
+        <v>1.000005351962144</v>
       </c>
       <c r="M19">
-        <v>0.9989617125603382</v>
+        <v>0.9999919767224226</v>
       </c>
       <c r="N19">
-        <v>0.9989617125603382</v>
+        <v>0.9999919767224226</v>
       </c>
       <c r="O19">
-        <v>0.998800200095693</v>
+        <v>0.9999907271209022</v>
       </c>
       <c r="P19">
-        <v>0.9995385403774358</v>
+        <v>0.9999964351356633</v>
       </c>
       <c r="Q19">
-        <v>0.9995385403774358</v>
+        <v>0.9999964351356633</v>
       </c>
       <c r="R19">
-        <v>0.9998269542859847</v>
+        <v>0.9999986643422836</v>
       </c>
       <c r="S19">
-        <v>0.9998269542859847</v>
+        <v>0.9999986643422836</v>
       </c>
       <c r="T19">
-        <v>0.9999384744993979</v>
+        <v>0.9999995257611184</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999988467349655</v>
+        <v>0.9999379876769114</v>
       </c>
       <c r="D20">
-        <v>1.000000290998619</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="E20">
-        <v>1.000000290998619</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="F20">
-        <v>0.9999988467349655</v>
+        <v>0.9999379876769114</v>
       </c>
       <c r="G20">
-        <v>1.000000772579732</v>
+        <v>1.000041345229595</v>
       </c>
       <c r="H20">
-        <v>0.9999993628066467</v>
+        <v>0.9999658902670508</v>
       </c>
       <c r="I20">
-        <v>1.000000290998619</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="J20">
-        <v>1.000000290998619</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="K20">
-        <v>1.000000290998619</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="L20">
-        <v>1.000000290998619</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="M20">
-        <v>0.9999995688667922</v>
+        <v>0.9999767465987622</v>
       </c>
       <c r="N20">
-        <v>0.9999995688667922</v>
+        <v>0.9999767465987622</v>
       </c>
       <c r="O20">
-        <v>0.9999995001800771</v>
+        <v>0.9999731278215251</v>
       </c>
       <c r="P20">
-        <v>0.9999998095774011</v>
+        <v>0.9999896662393791</v>
       </c>
       <c r="Q20">
-        <v>0.9999998095774011</v>
+        <v>0.9999896662393791</v>
       </c>
       <c r="R20">
-        <v>0.9999999299327056</v>
+        <v>0.9999961260596877</v>
       </c>
       <c r="S20">
-        <v>0.9999999299327056</v>
+        <v>0.9999961260596877</v>
       </c>
       <c r="T20">
-        <v>0.9999999758528668</v>
+        <v>0.9999986232892327</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999755721867947</v>
+        <v>0.999914431508769</v>
       </c>
       <c r="D21">
-        <v>1.000006109607833</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="E21">
-        <v>1.000006109607833</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="F21">
-        <v>0.9999755721867947</v>
+        <v>0.999914431508769</v>
       </c>
       <c r="G21">
-        <v>1.0000162891612</v>
+        <v>1.000057049295773</v>
       </c>
       <c r="H21">
-        <v>0.9999865619389987</v>
+        <v>0.9999529345750885</v>
       </c>
       <c r="I21">
-        <v>1.000006109607833</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="J21">
-        <v>1.000006109607833</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="K21">
-        <v>1.000006109607833</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="L21">
-        <v>1.000006109607833</v>
+        <v>1.000021394595544</v>
       </c>
       <c r="M21">
-        <v>0.9999908408973139</v>
+        <v>0.9999679130521564</v>
       </c>
       <c r="N21">
-        <v>0.9999908408973139</v>
+        <v>0.9999679130521564</v>
       </c>
       <c r="O21">
-        <v>0.9999894145778755</v>
+        <v>0.999962920226467</v>
       </c>
       <c r="P21">
-        <v>0.9999959304674869</v>
+        <v>0.9999857402332855</v>
       </c>
       <c r="Q21">
-        <v>0.9999959304674869</v>
+        <v>0.9999857402332855</v>
       </c>
       <c r="R21">
-        <v>0.9999984752525735</v>
+        <v>0.99999465382385</v>
       </c>
       <c r="S21">
-        <v>0.9999984752525735</v>
+        <v>0.99999465382385</v>
       </c>
       <c r="T21">
-        <v>0.9999994586850821</v>
+        <v>0.9999980998610436</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999139980085787</v>
+        <v>0.9998150553592617</v>
       </c>
       <c r="D22">
-        <v>1.000021505469089</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="E22">
-        <v>1.000021505469089</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="F22">
-        <v>0.9999139980085787</v>
+        <v>0.9998150553592617</v>
       </c>
       <c r="G22">
-        <v>1.000057338934098</v>
+        <v>1.000123299907403</v>
       </c>
       <c r="H22">
-        <v>0.999952694486655</v>
+        <v>0.9998982782170487</v>
       </c>
       <c r="I22">
-        <v>1.000021505469089</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="J22">
-        <v>1.000021505469089</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="K22">
-        <v>1.000021505469089</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="L22">
-        <v>1.000021505469089</v>
+        <v>1.000046238172775</v>
       </c>
       <c r="M22">
-        <v>0.9999677517388337</v>
+        <v>0.9999306467660185</v>
       </c>
       <c r="N22">
-        <v>0.9999677517388337</v>
+        <v>0.9999306467660185</v>
       </c>
       <c r="O22">
-        <v>0.9999627326547742</v>
+        <v>0.9999198572496951</v>
       </c>
       <c r="P22">
-        <v>0.9999856696489187</v>
+        <v>0.9999691772349374</v>
       </c>
       <c r="Q22">
-        <v>0.9999856696489187</v>
+        <v>0.9999691772349374</v>
       </c>
       <c r="R22">
-        <v>0.9999946286039612</v>
+        <v>0.9999884424693968</v>
       </c>
       <c r="S22">
-        <v>0.9999946286039612</v>
+        <v>0.9999884424693968</v>
       </c>
       <c r="T22">
-        <v>0.9999980913060996</v>
+        <v>0.9999958913336732</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9996902881960253</v>
+      </c>
+      <c r="D23">
+        <v>1.000077429923335</v>
+      </c>
+      <c r="E23">
+        <v>1.000077429923335</v>
+      </c>
+      <c r="F23">
+        <v>0.9996902881960253</v>
+      </c>
+      <c r="G23">
+        <v>1.000206479978124</v>
+      </c>
+      <c r="H23">
+        <v>0.999829655485182</v>
+      </c>
+      <c r="I23">
+        <v>1.000077429923335</v>
+      </c>
+      <c r="J23">
+        <v>1.000077429923335</v>
+      </c>
+      <c r="K23">
+        <v>1.000077429923335</v>
+      </c>
+      <c r="L23">
+        <v>1.000077429923335</v>
+      </c>
+      <c r="M23">
+        <v>0.9998838590596799</v>
+      </c>
+      <c r="N23">
+        <v>0.9998838590596799</v>
+      </c>
+      <c r="O23">
+        <v>0.9998657912015139</v>
+      </c>
+      <c r="P23">
+        <v>0.999948382680898</v>
+      </c>
+      <c r="Q23">
+        <v>0.999948382680898</v>
+      </c>
+      <c r="R23">
+        <v>0.9999806444915071</v>
+      </c>
+      <c r="S23">
+        <v>0.9999806444915071</v>
+      </c>
+      <c r="T23">
+        <v>0.9999931189048891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.0043788021237</v>
+      </c>
+      <c r="D24">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="E24">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="F24">
+        <v>1.0043788021237</v>
+      </c>
+      <c r="G24">
+        <v>0.9970808002566058</v>
+      </c>
+      <c r="H24">
+        <v>1.002408336125606</v>
+      </c>
+      <c r="I24">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="J24">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="K24">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="L24">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="M24">
+        <v>1.001642051320681</v>
+      </c>
+      <c r="N24">
+        <v>1.001642051320681</v>
+      </c>
+      <c r="O24">
+        <v>1.00189747958899</v>
+      </c>
+      <c r="P24">
+        <v>1.000729801053009</v>
+      </c>
+      <c r="Q24">
+        <v>1.000729801053009</v>
+      </c>
+      <c r="R24">
+        <v>1.000273675919172</v>
+      </c>
+      <c r="S24">
+        <v>1.000273675919172</v>
+      </c>
+      <c r="T24">
+        <v>1.000097306676484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001135447453925</v>
+      </c>
+      <c r="D25">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="E25">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="F25">
+        <v>1.001135447453925</v>
+      </c>
+      <c r="G25">
+        <v>0.9992430441352025</v>
+      </c>
+      <c r="H25">
+        <v>1.000624489943478</v>
+      </c>
+      <c r="I25">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="J25">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="K25">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="L25">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="M25">
+        <v>1.000425794705669</v>
+      </c>
+      <c r="N25">
+        <v>1.000425794705669</v>
+      </c>
+      <c r="O25">
+        <v>1.000492026451606</v>
+      </c>
+      <c r="P25">
+        <v>1.000189243789584</v>
+      </c>
+      <c r="Q25">
+        <v>1.000189243789584</v>
+      </c>
+      <c r="R25">
+        <v>1.000070968331541</v>
+      </c>
+      <c r="S25">
+        <v>1.000070968331541</v>
+      </c>
+      <c r="T25">
+        <v>1.000025234567474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.013698937876685</v>
+      </c>
+      <c r="D26">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="E26">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="F26">
+        <v>1.013698937876685</v>
+      </c>
+      <c r="G26">
+        <v>0.990867370997915</v>
+      </c>
+      <c r="H26">
+        <v>1.007534403626745</v>
+      </c>
+      <c r="I26">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="J26">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="K26">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="L26">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="M26">
+        <v>1.005137101301132</v>
+      </c>
+      <c r="N26">
+        <v>1.005137101301132</v>
+      </c>
+      <c r="O26">
+        <v>1.005936202076336</v>
+      </c>
+      <c r="P26">
+        <v>1.002283155775947</v>
+      </c>
+      <c r="Q26">
+        <v>1.002283155775947</v>
+      </c>
+      <c r="R26">
+        <v>1.000856183013355</v>
+      </c>
+      <c r="S26">
+        <v>1.000856183013355</v>
+      </c>
+      <c r="T26">
+        <v>1.00030441777968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.003657083884469</v>
+      </c>
+      <c r="D27">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="E27">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="F27">
+        <v>1.003657083884469</v>
+      </c>
+      <c r="G27">
+        <v>0.9975619373064037</v>
+      </c>
+      <c r="H27">
+        <v>1.002011394690566</v>
+      </c>
+      <c r="I27">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="J27">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="K27">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="L27">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="M27">
+        <v>1.00137140547893</v>
+      </c>
+      <c r="N27">
+        <v>1.00137140547893</v>
+      </c>
+      <c r="O27">
+        <v>1.001584735216142</v>
+      </c>
+      <c r="P27">
+        <v>1.000609512677083</v>
+      </c>
+      <c r="Q27">
+        <v>1.000609512677083</v>
+      </c>
+      <c r="R27">
+        <v>1.00022856627616</v>
+      </c>
+      <c r="S27">
+        <v>1.00022856627616</v>
+      </c>
+      <c r="T27">
+        <v>1.000081266183602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9945505884458067</v>
+      </c>
+      <c r="D28">
+        <v>1.001362352726717</v>
+      </c>
+      <c r="E28">
+        <v>1.001362352726717</v>
+      </c>
+      <c r="F28">
+        <v>0.9945505884458067</v>
+      </c>
+      <c r="G28">
+        <v>1.003632940161219</v>
+      </c>
+      <c r="H28">
+        <v>0.9970028171581493</v>
+      </c>
+      <c r="I28">
+        <v>1.001362352726717</v>
+      </c>
+      <c r="J28">
+        <v>1.001362352726717</v>
+      </c>
+      <c r="K28">
+        <v>1.001362352726717</v>
+      </c>
+      <c r="L28">
+        <v>1.001362352726717</v>
+      </c>
+      <c r="M28">
+        <v>0.9979564705862616</v>
+      </c>
+      <c r="N28">
+        <v>0.9979564705862616</v>
+      </c>
+      <c r="O28">
+        <v>0.9976385861102242</v>
+      </c>
+      <c r="P28">
+        <v>0.9990917646330799</v>
+      </c>
+      <c r="Q28">
+        <v>0.9990917646330799</v>
+      </c>
+      <c r="R28">
+        <v>0.9996594116564891</v>
+      </c>
+      <c r="S28">
+        <v>0.9996594116564891</v>
+      </c>
+      <c r="T28">
+        <v>0.9998789006575541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9955374399433708</v>
+      </c>
+      <c r="D29">
+        <v>1.001115641010163</v>
+      </c>
+      <c r="E29">
+        <v>1.001115641010163</v>
+      </c>
+      <c r="F29">
+        <v>0.9955374399433708</v>
+      </c>
+      <c r="G29">
+        <v>1.002975041279093</v>
+      </c>
+      <c r="H29">
+        <v>0.997545586876089</v>
+      </c>
+      <c r="I29">
+        <v>1.001115641010163</v>
+      </c>
+      <c r="J29">
+        <v>1.001115641010163</v>
+      </c>
+      <c r="K29">
+        <v>1.001115641010163</v>
+      </c>
+      <c r="L29">
+        <v>1.001115641010163</v>
+      </c>
+      <c r="M29">
+        <v>0.9983265404767669</v>
+      </c>
+      <c r="N29">
+        <v>0.9983265404767669</v>
+      </c>
+      <c r="O29">
+        <v>0.9980662226098742</v>
+      </c>
+      <c r="P29">
+        <v>0.9992562406545656</v>
+      </c>
+      <c r="Q29">
+        <v>0.9992562406545656</v>
+      </c>
+      <c r="R29">
+        <v>0.999721090743465</v>
+      </c>
+      <c r="S29">
+        <v>0.999721090743465</v>
+      </c>
+      <c r="T29">
+        <v>0.9999008318548404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9975156178978601</v>
+      </c>
+      <c r="D30">
+        <v>1.000621099817564</v>
+      </c>
+      <c r="E30">
+        <v>1.000621099817564</v>
+      </c>
+      <c r="F30">
+        <v>0.9975156178978601</v>
+      </c>
+      <c r="G30">
+        <v>1.001656259932717</v>
+      </c>
+      <c r="H30">
+        <v>0.9986335879226074</v>
+      </c>
+      <c r="I30">
+        <v>1.000621099817564</v>
+      </c>
+      <c r="J30">
+        <v>1.000621099817564</v>
+      </c>
+      <c r="K30">
+        <v>1.000621099817564</v>
+      </c>
+      <c r="L30">
+        <v>1.000621099817564</v>
+      </c>
+      <c r="M30">
+        <v>0.9990683588577118</v>
+      </c>
+      <c r="N30">
+        <v>0.9990683588577118</v>
+      </c>
+      <c r="O30">
+        <v>0.998923435212677</v>
+      </c>
+      <c r="P30">
+        <v>0.9995859391776625</v>
+      </c>
+      <c r="Q30">
+        <v>0.9995859391776625</v>
+      </c>
+      <c r="R30">
+        <v>0.9998447293376378</v>
+      </c>
+      <c r="S30">
+        <v>0.9998447293376378</v>
+      </c>
+      <c r="T30">
+        <v>0.9999447942009793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.997231229109045</v>
+      </c>
+      <c r="D31">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="E31">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="F31">
+        <v>0.997231229109045</v>
+      </c>
+      <c r="G31">
+        <v>1.001845854686046</v>
+      </c>
+      <c r="H31">
+        <v>0.9984771751664028</v>
+      </c>
+      <c r="I31">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="J31">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="K31">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="L31">
+        <v>1.000692196011631</v>
+      </c>
+      <c r="M31">
+        <v>0.9989617125603382</v>
+      </c>
+      <c r="N31">
+        <v>0.9989617125603382</v>
+      </c>
+      <c r="O31">
+        <v>0.998800200095693</v>
+      </c>
+      <c r="P31">
+        <v>0.9995385403774358</v>
+      </c>
+      <c r="Q31">
+        <v>0.9995385403774358</v>
+      </c>
+      <c r="R31">
+        <v>0.9998269542859847</v>
+      </c>
+      <c r="S31">
+        <v>0.9998269542859847</v>
+      </c>
+      <c r="T31">
+        <v>0.9999384744993979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9934059664383565</v>
+      </c>
+      <c r="D32">
+        <v>1.001648507123288</v>
+      </c>
+      <c r="E32">
+        <v>1.001648507123288</v>
+      </c>
+      <c r="F32">
+        <v>0.9934059664383565</v>
+      </c>
+      <c r="G32">
+        <v>1.00439602</v>
+      </c>
+      <c r="H32">
+        <v>0.9963732738356171</v>
+      </c>
+      <c r="I32">
+        <v>1.001648507123288</v>
+      </c>
+      <c r="J32">
+        <v>1.001648507123288</v>
+      </c>
+      <c r="K32">
+        <v>1.001648507123288</v>
+      </c>
+      <c r="L32">
+        <v>1.001648507123288</v>
+      </c>
+      <c r="M32">
+        <v>0.9975272367808221</v>
+      </c>
+      <c r="N32">
+        <v>0.9975272367808221</v>
+      </c>
+      <c r="O32">
+        <v>0.9971425824657537</v>
+      </c>
+      <c r="P32">
+        <v>0.998900993561644</v>
+      </c>
+      <c r="Q32">
+        <v>0.998900993561644</v>
+      </c>
+      <c r="R32">
+        <v>0.9995878719520549</v>
+      </c>
+      <c r="S32">
+        <v>0.9995878719520549</v>
+      </c>
+      <c r="T32">
+        <v>0.9998534636073061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9922336247368421</v>
+      </c>
+      <c r="D33">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="E33">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="F33">
+        <v>0.9922336247368421</v>
+      </c>
+      <c r="G33">
+        <v>1.005177581052631</v>
+      </c>
+      <c r="H33">
+        <v>0.9957284863157894</v>
+      </c>
+      <c r="I33">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="J33">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="K33">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="L33">
+        <v>1.00194159368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9970876092105261</v>
+      </c>
+      <c r="N33">
+        <v>0.9970876092105261</v>
+      </c>
+      <c r="O33">
+        <v>0.9966345682456138</v>
+      </c>
+      <c r="P33">
+        <v>0.9987056040350875</v>
+      </c>
+      <c r="Q33">
+        <v>0.9987056040350875</v>
+      </c>
+      <c r="R33">
+        <v>0.9995146014473681</v>
+      </c>
+      <c r="S33">
+        <v>0.9995146014473681</v>
+      </c>
+      <c r="T33">
+        <v>0.9998274121929823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.98280841</v>
+      </c>
+      <c r="D34">
+        <v>1.0042979</v>
+      </c>
+      <c r="E34">
+        <v>1.0042979</v>
+      </c>
+      <c r="F34">
+        <v>0.98280841</v>
+      </c>
+      <c r="G34">
+        <v>1.0114611</v>
+      </c>
+      <c r="H34">
+        <v>0.9905446299999997</v>
+      </c>
+      <c r="I34">
+        <v>1.0042979</v>
+      </c>
+      <c r="J34">
+        <v>1.0042979</v>
+      </c>
+      <c r="K34">
+        <v>1.0042979</v>
+      </c>
+      <c r="L34">
+        <v>1.0042979</v>
+      </c>
+      <c r="M34">
+        <v>0.9935531549999999</v>
+      </c>
+      <c r="N34">
+        <v>0.9935531549999999</v>
+      </c>
+      <c r="O34">
+        <v>0.9925503133333331</v>
+      </c>
+      <c r="P34">
+        <v>0.9971347366666664</v>
+      </c>
+      <c r="Q34">
+        <v>0.9971347366666664</v>
+      </c>
+      <c r="R34">
+        <v>0.9989255274999997</v>
+      </c>
+      <c r="S34">
+        <v>0.9989255274999997</v>
+      </c>
+      <c r="T34">
+        <v>0.9996179733333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9901951211133433</v>
+      </c>
+      <c r="D35">
+        <v>1.002451222775318</v>
+      </c>
+      <c r="E35">
+        <v>1.002451222775318</v>
+      </c>
+      <c r="F35">
+        <v>0.9901951211133433</v>
+      </c>
+      <c r="G35">
+        <v>1.006536608455751</v>
+      </c>
+      <c r="H35">
+        <v>0.9946073176634632</v>
+      </c>
+      <c r="I35">
+        <v>1.002451222775318</v>
+      </c>
+      <c r="J35">
+        <v>1.002451222775318</v>
+      </c>
+      <c r="K35">
+        <v>1.002451222775318</v>
+      </c>
+      <c r="L35">
+        <v>1.002451222775318</v>
+      </c>
+      <c r="M35">
+        <v>0.9963231719443304</v>
+      </c>
+      <c r="N35">
+        <v>0.9963231719443304</v>
+      </c>
+      <c r="O35">
+        <v>0.9957512205173747</v>
+      </c>
+      <c r="P35">
+        <v>0.9983658555546594</v>
+      </c>
+      <c r="Q35">
+        <v>0.9983658555546594</v>
+      </c>
+      <c r="R35">
+        <v>0.999387197359824</v>
+      </c>
+      <c r="S35">
+        <v>0.999387197359824</v>
+      </c>
+      <c r="T35">
+        <v>0.9997821192597517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999988467349655</v>
+      </c>
+      <c r="D36">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="E36">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="F36">
+        <v>0.9999988467349655</v>
+      </c>
+      <c r="G36">
+        <v>1.000000772579732</v>
+      </c>
+      <c r="H36">
+        <v>0.9999993628066467</v>
+      </c>
+      <c r="I36">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="J36">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="K36">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="L36">
+        <v>1.000000290998619</v>
+      </c>
+      <c r="M36">
+        <v>0.9999995688667922</v>
+      </c>
+      <c r="N36">
+        <v>0.9999995688667922</v>
+      </c>
+      <c r="O36">
+        <v>0.9999995001800771</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998095774011</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999998095774011</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999299327056</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999299327056</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999758528668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999755721867947</v>
+      </c>
+      <c r="D37">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="E37">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="F37">
+        <v>0.9999755721867947</v>
+      </c>
+      <c r="G37">
+        <v>1.0000162891612</v>
+      </c>
+      <c r="H37">
+        <v>0.9999865619389987</v>
+      </c>
+      <c r="I37">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="J37">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="K37">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="L37">
+        <v>1.000006109607833</v>
+      </c>
+      <c r="M37">
+        <v>0.9999908408973139</v>
+      </c>
+      <c r="N37">
+        <v>0.9999908408973139</v>
+      </c>
+      <c r="O37">
+        <v>0.9999894145778755</v>
+      </c>
+      <c r="P37">
+        <v>0.9999959304674869</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999959304674869</v>
+      </c>
+      <c r="R37">
+        <v>0.9999984752525735</v>
+      </c>
+      <c r="S37">
+        <v>0.9999984752525735</v>
+      </c>
+      <c r="T37">
+        <v>0.9999994586850821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999139980085787</v>
+      </c>
+      <c r="D38">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="E38">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="F38">
+        <v>0.9999139980085787</v>
+      </c>
+      <c r="G38">
+        <v>1.000057338934098</v>
+      </c>
+      <c r="H38">
+        <v>0.999952694486655</v>
+      </c>
+      <c r="I38">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="J38">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="K38">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="L38">
+        <v>1.000021505469089</v>
+      </c>
+      <c r="M38">
+        <v>0.9999677517388337</v>
+      </c>
+      <c r="N38">
+        <v>0.9999677517388337</v>
+      </c>
+      <c r="O38">
+        <v>0.9999627326547742</v>
+      </c>
+      <c r="P38">
+        <v>0.9999856696489187</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999856696489187</v>
+      </c>
+      <c r="R38">
+        <v>0.9999946286039612</v>
+      </c>
+      <c r="S38">
+        <v>0.9999946286039612</v>
+      </c>
+      <c r="T38">
+        <v>0.9999980913060996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9997985200528525</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000050372258046</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000050372258046</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9997985200528525</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000134326000111</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9998891848892675</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000050372258046</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000050372258046</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000050372258046</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000050372258046</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999244461554491</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999244461554491</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999126924000552</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999664215229812</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999664215229812</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999874092067473</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999874092067473</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999955246193947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.993782478749851</v>
+      </c>
+      <c r="D40">
+        <v>1.001554384044215</v>
+      </c>
+      <c r="E40">
+        <v>1.001554384044215</v>
+      </c>
+      <c r="F40">
+        <v>0.993782478749851</v>
+      </c>
+      <c r="G40">
+        <v>1.004145017360035</v>
+      </c>
+      <c r="H40">
+        <v>0.9965803609245277</v>
+      </c>
+      <c r="I40">
+        <v>1.001554384044215</v>
+      </c>
+      <c r="J40">
+        <v>1.001554384044215</v>
+      </c>
+      <c r="K40">
+        <v>1.001554384044215</v>
+      </c>
+      <c r="L40">
+        <v>1.001554384044215</v>
+      </c>
+      <c r="M40">
+        <v>0.9976684313970331</v>
+      </c>
+      <c r="N40">
+        <v>0.9976684313970331</v>
+      </c>
+      <c r="O40">
+        <v>0.9973057412395313</v>
+      </c>
+      <c r="P40">
+        <v>0.9989637489460937</v>
+      </c>
+      <c r="Q40">
+        <v>0.9989637489460937</v>
+      </c>
+      <c r="R40">
+        <v>0.9996114077206241</v>
+      </c>
+      <c r="S40">
+        <v>0.9996114077206241</v>
+      </c>
+      <c r="T40">
+        <v>0.9998618348611764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000059895170774</v>
+      </c>
+      <c r="D41">
+        <v>0.9999850289082627</v>
+      </c>
+      <c r="E41">
+        <v>0.9999850289082627</v>
+      </c>
+      <c r="F41">
+        <v>1.000059895170774</v>
+      </c>
+      <c r="G41">
+        <v>0.9999600746127788</v>
+      </c>
+      <c r="H41">
+        <v>1.000032939518156</v>
+      </c>
+      <c r="I41">
+        <v>0.9999850289082627</v>
+      </c>
+      <c r="J41">
+        <v>0.9999850289082627</v>
+      </c>
+      <c r="K41">
+        <v>0.9999850289082627</v>
+      </c>
+      <c r="L41">
+        <v>0.9999850289082627</v>
+      </c>
+      <c r="M41">
+        <v>1.000022462039518</v>
+      </c>
+      <c r="N41">
+        <v>1.000022462039518</v>
+      </c>
+      <c r="O41">
+        <v>1.000025954532398</v>
+      </c>
+      <c r="P41">
+        <v>1.0000099843291</v>
+      </c>
+      <c r="Q41">
+        <v>1.0000099843291</v>
+      </c>
+      <c r="R41">
+        <v>1.00000374547389</v>
+      </c>
+      <c r="S41">
+        <v>1.00000374547389</v>
+      </c>
+      <c r="T41">
+        <v>1.000001332671083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9937795888477156</v>
+      </c>
+      <c r="D42">
+        <v>1.001555106782231</v>
+      </c>
+      <c r="E42">
+        <v>1.001555106782231</v>
+      </c>
+      <c r="F42">
+        <v>0.9937795888477156</v>
+      </c>
+      <c r="G42">
+        <v>1.004146942525542</v>
+      </c>
+      <c r="H42">
+        <v>0.9965787712172034</v>
+      </c>
+      <c r="I42">
+        <v>1.001555106782231</v>
+      </c>
+      <c r="J42">
+        <v>1.001555106782231</v>
+      </c>
+      <c r="K42">
+        <v>1.001555106782231</v>
+      </c>
+      <c r="L42">
+        <v>1.001555106782231</v>
+      </c>
+      <c r="M42">
+        <v>0.9976673478149736</v>
+      </c>
+      <c r="N42">
+        <v>0.9976673478149736</v>
+      </c>
+      <c r="O42">
+        <v>0.9973044889490502</v>
+      </c>
+      <c r="P42">
+        <v>0.9989632674707263</v>
+      </c>
+      <c r="Q42">
+        <v>0.9989632674707263</v>
+      </c>
+      <c r="R42">
+        <v>0.9996112272986026</v>
+      </c>
+      <c r="S42">
+        <v>0.9996112272986026</v>
+      </c>
+      <c r="T42">
+        <v>0.999861770489526</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000069835055996</v>
+        <v>0.9999379876769114</v>
       </c>
       <c r="D3">
-        <v>0.9997206700689053</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="E3">
-        <v>1.000069835055996</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="F3">
-        <v>1.000069835055996</v>
+        <v>0.9999379876769114</v>
       </c>
       <c r="G3">
-        <v>1.000186223704231</v>
+        <v>1.000041345229595</v>
       </c>
       <c r="H3">
-        <v>0.9998463654071472</v>
+        <v>0.9999658902670508</v>
       </c>
       <c r="I3">
-        <v>1.000069835055996</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="J3">
-        <v>0.9997206700689053</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="K3">
-        <v>1.000069835055996</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="L3">
-        <v>1.000069835055996</v>
+        <v>1.000015505520613</v>
       </c>
       <c r="M3">
-        <v>0.9998952525624509</v>
+        <v>0.9999767465987622</v>
       </c>
       <c r="N3">
-        <v>0.9998952525624509</v>
+        <v>0.9999767465987622</v>
       </c>
       <c r="O3">
-        <v>0.9998789568440163</v>
+        <v>0.9999731278215251</v>
       </c>
       <c r="P3">
-        <v>0.9999534467269662</v>
+        <v>0.9999896662393791</v>
       </c>
       <c r="Q3">
-        <v>0.9999534467269662</v>
+        <v>0.9999896662393791</v>
       </c>
       <c r="R3">
-        <v>0.9999825438092238</v>
+        <v>0.9999961260596877</v>
       </c>
       <c r="S3">
-        <v>0.9999825438092238</v>
+        <v>0.9999961260596877</v>
       </c>
       <c r="T3">
-        <v>0.9999937940580454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999986232892327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000134813930807</v>
+        <v>0.993782478749851</v>
       </c>
       <c r="D4">
-        <v>0.9994607565343681</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="E4">
-        <v>1.000134813930807</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="F4">
-        <v>1.000134813930807</v>
+        <v>0.993782478749851</v>
       </c>
       <c r="G4">
-        <v>1.000359499314318</v>
+        <v>1.004145017360035</v>
       </c>
       <c r="H4">
-        <v>0.9997034129494882</v>
+        <v>0.9965803609245277</v>
       </c>
       <c r="I4">
-        <v>1.000134813930807</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="J4">
-        <v>0.9994607565343681</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="K4">
-        <v>1.000134813930807</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="L4">
-        <v>1.000134813930807</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="M4">
-        <v>0.9997977852325876</v>
+        <v>0.9976684313970331</v>
       </c>
       <c r="N4">
-        <v>0.9997977852325876</v>
+        <v>0.9976684313970331</v>
       </c>
       <c r="O4">
-        <v>0.9997663278048877</v>
+        <v>0.9973057412395313</v>
       </c>
       <c r="P4">
-        <v>0.9999101281319941</v>
+        <v>0.9989637489460937</v>
       </c>
       <c r="Q4">
-        <v>0.9999101281319941</v>
+        <v>0.9989637489460937</v>
       </c>
       <c r="R4">
-        <v>0.9999662995816974</v>
+        <v>0.9996114077206241</v>
       </c>
       <c r="S4">
-        <v>0.9999662995816974</v>
+        <v>0.9996114077206241</v>
       </c>
       <c r="T4">
-        <v>0.999988018431766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9998618348611764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000258348439586</v>
+        <v>0.9968818568587916</v>
       </c>
       <c r="D5">
-        <v>0.9989666086616202</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="E5">
-        <v>1.000258348439586</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="F5">
-        <v>1.000258348439586</v>
+        <v>0.9968818568587916</v>
       </c>
       <c r="G5">
-        <v>1.000688935958332</v>
+        <v>1.002078768645533</v>
       </c>
       <c r="H5">
-        <v>0.9994316327557028</v>
+        <v>0.9982850190922193</v>
       </c>
       <c r="I5">
-        <v>1.000258348439586</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="J5">
-        <v>0.9989666086616202</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="K5">
-        <v>1.000258348439586</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="L5">
-        <v>1.000258348439586</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="M5">
-        <v>0.999612478550603</v>
+        <v>0.9988306979106641</v>
       </c>
       <c r="N5">
-        <v>0.999612478550603</v>
+        <v>0.9988306979106641</v>
       </c>
       <c r="O5">
-        <v>0.9995521966189695</v>
+        <v>0.9986488049711825</v>
       </c>
       <c r="P5">
-        <v>0.9998277685135971</v>
+        <v>0.9994803115946217</v>
       </c>
       <c r="Q5">
-        <v>0.9998277685135971</v>
+        <v>0.9994803115946217</v>
       </c>
       <c r="R5">
-        <v>0.9999354134950943</v>
+        <v>0.9998051184366004</v>
       </c>
       <c r="S5">
-        <v>0.9999354134950943</v>
+        <v>0.9998051184366004</v>
       </c>
       <c r="T5">
-        <v>0.9999770371157354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.999930710247359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000378919608968</v>
+        <v>0.9901951211133433</v>
       </c>
       <c r="D6">
-        <v>0.9984843456494917</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="E6">
-        <v>1.000378919608968</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="F6">
-        <v>1.000378919608968</v>
+        <v>0.9901951211133433</v>
       </c>
       <c r="G6">
-        <v>1.00101044281193</v>
+        <v>1.006536608455751</v>
       </c>
       <c r="H6">
-        <v>0.9991663812533509</v>
+        <v>0.9946073176634632</v>
       </c>
       <c r="I6">
-        <v>1.000378919608968</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="J6">
-        <v>0.9984843456494917</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="K6">
-        <v>1.000378919608968</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="L6">
-        <v>1.000378919608968</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="M6">
-        <v>0.9994316326292298</v>
+        <v>0.9963231719443304</v>
       </c>
       <c r="N6">
-        <v>0.9994316326292298</v>
+        <v>0.9963231719443304</v>
       </c>
       <c r="O6">
-        <v>0.9993432155039369</v>
+        <v>0.9957512205173747</v>
       </c>
       <c r="P6">
-        <v>0.9997473949558092</v>
+        <v>0.9983658555546594</v>
       </c>
       <c r="Q6">
-        <v>0.9997473949558092</v>
+        <v>0.9983658555546594</v>
       </c>
       <c r="R6">
-        <v>0.999905276119099</v>
+        <v>0.999387197359824</v>
       </c>
       <c r="S6">
-        <v>0.999905276119099</v>
+        <v>0.999387197359824</v>
       </c>
       <c r="T6">
-        <v>0.9999663214236127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9997821192597517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000005351962144</v>
+        <v>0.9996336239025042</v>
       </c>
       <c r="D7">
-        <v>0.9999786014827009</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="E7">
-        <v>1.000005351962144</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="F7">
-        <v>1.000005351962144</v>
+        <v>0.9996336239025042</v>
       </c>
       <c r="G7">
-        <v>1.000014269279714</v>
+        <v>1.00024425504969</v>
       </c>
       <c r="H7">
-        <v>0.9999882279178615</v>
+        <v>0.9997984899703968</v>
       </c>
       <c r="I7">
-        <v>1.000005351962144</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="J7">
-        <v>0.9999786014827009</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="K7">
-        <v>1.000005351962144</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="L7">
-        <v>1.000005351962144</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="M7">
-        <v>0.9999919767224226</v>
+        <v>0.9998626102858765</v>
       </c>
       <c r="N7">
-        <v>0.9999919767224226</v>
+        <v>0.9998626102858765</v>
       </c>
       <c r="O7">
-        <v>0.9999907271209022</v>
+        <v>0.9998412368473834</v>
       </c>
       <c r="P7">
-        <v>0.9999964351356633</v>
+        <v>0.999938939080334</v>
       </c>
       <c r="Q7">
-        <v>0.9999964351356633</v>
+        <v>0.999938939080334</v>
       </c>
       <c r="R7">
-        <v>0.9999986643422836</v>
+        <v>0.9999771034775627</v>
       </c>
       <c r="S7">
-        <v>0.9999986643422836</v>
+        <v>0.9999771034775627</v>
       </c>
       <c r="T7">
-        <v>0.9999995257611184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999918598217228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000015505520613</v>
+        <v>0.9999755721867947</v>
       </c>
       <c r="D8">
-        <v>0.9999379876769114</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="E8">
-        <v>1.000015505520613</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="F8">
-        <v>1.000015505520613</v>
+        <v>0.9999755721867947</v>
       </c>
       <c r="G8">
-        <v>1.000041345229595</v>
+        <v>1.0000162891612</v>
       </c>
       <c r="H8">
-        <v>0.9999658902670508</v>
+        <v>0.9999865619389987</v>
       </c>
       <c r="I8">
-        <v>1.000015505520613</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="J8">
-        <v>0.9999379876769114</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="K8">
-        <v>1.000015505520613</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="L8">
-        <v>1.000015505520613</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="M8">
-        <v>0.9999767465987621</v>
+        <v>0.9999908408973139</v>
       </c>
       <c r="N8">
-        <v>0.9999767465987621</v>
+        <v>0.9999908408973139</v>
       </c>
       <c r="O8">
-        <v>0.999973127821525</v>
+        <v>0.9999894145778755</v>
       </c>
       <c r="P8">
-        <v>0.999989666239379</v>
+        <v>0.9999959304674869</v>
       </c>
       <c r="Q8">
-        <v>0.999989666239379</v>
+        <v>0.9999959304674869</v>
       </c>
       <c r="R8">
-        <v>0.9999961260596875</v>
+        <v>0.9999984752525735</v>
       </c>
       <c r="S8">
-        <v>0.9999961260596875</v>
+        <v>0.9999984752525735</v>
       </c>
       <c r="T8">
-        <v>0.9999986232892327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999994586850821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000021394595544</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="D9">
-        <v>0.999914431508769</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="E9">
-        <v>1.000021394595544</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="F9">
-        <v>1.000021394595544</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="G9">
-        <v>1.000057049295773</v>
+        <v>1.000359499314318</v>
       </c>
       <c r="H9">
-        <v>0.9999529345750883</v>
+        <v>0.9997034129494882</v>
       </c>
       <c r="I9">
-        <v>1.000021394595544</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="J9">
-        <v>0.999914431508769</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="K9">
-        <v>1.000021394595544</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="L9">
-        <v>1.000021394595544</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="M9">
-        <v>0.9999679130521564</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="N9">
-        <v>0.9999679130521564</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="O9">
-        <v>0.999962920226467</v>
+        <v>0.9997663278048875</v>
       </c>
       <c r="P9">
-        <v>0.9999857402332855</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="Q9">
-        <v>0.9999857402332855</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="R9">
-        <v>0.99999465382385</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="S9">
-        <v>0.99999465382385</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="T9">
-        <v>0.9999980998610436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999880184317659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000046238172775</v>
+        <v>0.9900494882923959</v>
       </c>
       <c r="D10">
-        <v>0.9998150553592617</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="E10">
-        <v>1.000046238172775</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="F10">
-        <v>1.000046238172775</v>
+        <v>0.9900494882923959</v>
       </c>
       <c r="G10">
-        <v>1.000123299907403</v>
+        <v>1.00663369730644</v>
       </c>
       <c r="H10">
-        <v>0.9998982782170487</v>
+        <v>0.9945272196866869</v>
       </c>
       <c r="I10">
-        <v>1.000046238172775</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="J10">
-        <v>0.9998150553592617</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="K10">
-        <v>1.000046238172775</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="L10">
-        <v>1.000046238172775</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="M10">
-        <v>0.9999306467660185</v>
+        <v>0.9962685596757368</v>
       </c>
       <c r="N10">
-        <v>0.9999306467660185</v>
+        <v>0.9962685596757368</v>
       </c>
       <c r="O10">
-        <v>0.9999198572496951</v>
+        <v>0.9956881130127201</v>
       </c>
       <c r="P10">
-        <v>0.9999691772349374</v>
+        <v>0.9983415834701838</v>
       </c>
       <c r="Q10">
-        <v>0.9999691772349374</v>
+        <v>0.9983415834701838</v>
       </c>
       <c r="R10">
-        <v>0.9999884424693968</v>
+        <v>0.9993780953674073</v>
       </c>
       <c r="S10">
-        <v>0.9999884424693968</v>
+        <v>0.9993780953674073</v>
       </c>
       <c r="T10">
-        <v>0.9999958913336732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9997788830771258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000077429923335</v>
+        <v>0.9937823213260251</v>
       </c>
       <c r="D11">
-        <v>0.9996902881960253</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="E11">
-        <v>1.000077429923335</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="F11">
-        <v>1.000077429923335</v>
+        <v>0.9937823213260251</v>
       </c>
       <c r="G11">
-        <v>1.000206479978124</v>
+        <v>1.004145122192096</v>
       </c>
       <c r="H11">
-        <v>0.999829655485182</v>
+        <v>0.9965802745444359</v>
       </c>
       <c r="I11">
-        <v>1.000077429923335</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="J11">
-        <v>0.9996902881960253</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="K11">
-        <v>1.000077429923335</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="L11">
-        <v>1.000077429923335</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="M11">
-        <v>0.9998838590596799</v>
+        <v>0.9976683723961498</v>
       </c>
       <c r="N11">
-        <v>0.9998838590596799</v>
+        <v>0.9976683723961498</v>
       </c>
       <c r="O11">
-        <v>0.9998657912015139</v>
+        <v>0.9973056731122453</v>
       </c>
       <c r="P11">
-        <v>0.999948382680898</v>
+        <v>0.9989637227528579</v>
       </c>
       <c r="Q11">
-        <v>0.999948382680898</v>
+        <v>0.9989637227528579</v>
       </c>
       <c r="R11">
-        <v>0.9999806444915071</v>
+        <v>0.9996113979312121</v>
       </c>
       <c r="S11">
-        <v>0.9999806444915071</v>
+        <v>0.9996113979312121</v>
       </c>
       <c r="T11">
-        <v>0.9999931189048891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.99986183141023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9989053005176629</v>
+        <v>0.9968193815368415</v>
       </c>
       <c r="D12">
-        <v>1.0043788021237</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="E12">
-        <v>0.9989053005176629</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="F12">
-        <v>0.9989053005176629</v>
+        <v>0.9968193815368415</v>
       </c>
       <c r="G12">
-        <v>0.9970808002566058</v>
+        <v>1.002120420252632</v>
       </c>
       <c r="H12">
-        <v>1.002408336125606</v>
+        <v>0.9982506577684186</v>
       </c>
       <c r="I12">
-        <v>0.9989053005176629</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="J12">
-        <v>1.0043788021237</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="K12">
-        <v>0.9989053005176629</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="L12">
-        <v>0.9989053005176629</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="M12">
-        <v>1.001642051320681</v>
+        <v>0.9988072700105255</v>
       </c>
       <c r="N12">
-        <v>1.001642051320681</v>
+        <v>0.9988072700105255</v>
       </c>
       <c r="O12">
-        <v>1.00189747958899</v>
+        <v>0.9986217325964898</v>
       </c>
       <c r="P12">
-        <v>1.000729801053009</v>
+        <v>0.9994698995017535</v>
       </c>
       <c r="Q12">
-        <v>1.000729801053009</v>
+        <v>0.9994698995017535</v>
       </c>
       <c r="R12">
-        <v>1.000273675919172</v>
+        <v>0.9998012142473676</v>
       </c>
       <c r="S12">
-        <v>1.000273675919172</v>
+        <v>0.9998012142473676</v>
       </c>
       <c r="T12">
-        <v>1.000097306676484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9999293225017536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9997161419574134</v>
+        <v>1.001957005535424</v>
       </c>
       <c r="D13">
-        <v>1.001135447453925</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="E13">
-        <v>0.9997161419574134</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="F13">
-        <v>0.9997161419574134</v>
+        <v>1.001957005535424</v>
       </c>
       <c r="G13">
-        <v>0.9992430441352023</v>
+        <v>0.9986953334412961</v>
       </c>
       <c r="H13">
-        <v>1.000624489943478</v>
+        <v>1.001076349802816</v>
       </c>
       <c r="I13">
-        <v>0.9997161419574134</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="J13">
-        <v>1.001135447453925</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="K13">
-        <v>0.9997161419574134</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="L13">
-        <v>0.9997161419574134</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="M13">
-        <v>1.000425794705669</v>
+        <v>1.000733878573321</v>
       </c>
       <c r="N13">
-        <v>1.000425794705669</v>
+        <v>1.000733878573321</v>
       </c>
       <c r="O13">
-        <v>1.000492026451606</v>
+        <v>1.00084803564982</v>
       </c>
       <c r="P13">
-        <v>1.000189243789584</v>
+        <v>1.000326169585954</v>
       </c>
       <c r="Q13">
-        <v>1.000189243789584</v>
+        <v>1.000326169585954</v>
       </c>
       <c r="R13">
-        <v>1.000070968331541</v>
+        <v>1.00012231509227</v>
       </c>
       <c r="S13">
-        <v>1.000070968331541</v>
+        <v>1.00012231509227</v>
       </c>
       <c r="T13">
-        <v>1.000025234567474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000043490602199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9965752647255786</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="D14">
-        <v>1.013698937876685</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E14">
-        <v>0.9965752647255786</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="F14">
-        <v>0.9965752647255786</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G14">
-        <v>0.990867370997915</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H14">
-        <v>1.007534403626745</v>
+        <v>0.9905446300000009</v>
       </c>
       <c r="I14">
-        <v>0.9965752647255786</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="J14">
-        <v>1.013698937876685</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="K14">
-        <v>0.9965752647255786</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L14">
-        <v>0.9965752647255786</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="M14">
-        <v>1.005137101301132</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="N14">
-        <v>1.005137101301132</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="O14">
-        <v>1.005936202076336</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P14">
-        <v>1.002283155775947</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="Q14">
-        <v>1.002283155775947</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="R14">
-        <v>1.000856183013355</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="S14">
-        <v>1.000856183013355</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="T14">
-        <v>1.00030441777968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9996179733333328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9990857270733903</v>
+        <v>0.98280841</v>
       </c>
       <c r="D15">
-        <v>1.003657083884469</v>
+        <v>1.0042979</v>
       </c>
       <c r="E15">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="F15">
-        <v>0.9990857270733903</v>
+        <v>0.98280841</v>
       </c>
       <c r="G15">
-        <v>0.9975619373064037</v>
+        <v>1.0114611</v>
       </c>
       <c r="H15">
-        <v>1.002011394690566</v>
+        <v>0.99054463</v>
       </c>
       <c r="I15">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="J15">
-        <v>1.003657083884469</v>
+        <v>1.0042979</v>
       </c>
       <c r="K15">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>1.00137140547893</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>1.00137140547893</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>1.001584735216142</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>1.000609512677083</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>1.000609512677083</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>1.00022856627616</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>1.00022856627616</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>1.000081266183602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000290998619</v>
+        <v>0.95415576</v>
       </c>
       <c r="D16">
-        <v>0.9999988467349655</v>
+        <v>1.0114611</v>
       </c>
       <c r="E16">
-        <v>1.000000290998619</v>
+        <v>1.0114611</v>
       </c>
       <c r="F16">
-        <v>1.000000290998619</v>
+        <v>0.95415576</v>
       </c>
       <c r="G16">
-        <v>1.000000772579732</v>
+        <v>1.0305628</v>
       </c>
       <c r="H16">
-        <v>0.9999993628066466</v>
+        <v>0.9747856699999999</v>
       </c>
       <c r="I16">
-        <v>1.000000290998619</v>
+        <v>1.0114611</v>
       </c>
       <c r="J16">
-        <v>0.9999988467349655</v>
+        <v>1.0114611</v>
       </c>
       <c r="K16">
-        <v>1.000000290998619</v>
+        <v>1.0114611</v>
       </c>
       <c r="L16">
-        <v>1.000000290998619</v>
+        <v>1.0114611</v>
       </c>
       <c r="M16">
-        <v>0.9999995688667922</v>
+        <v>0.98280843</v>
       </c>
       <c r="N16">
-        <v>0.9999995688667922</v>
+        <v>0.98280843</v>
       </c>
       <c r="O16">
-        <v>0.9999995001800771</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P16">
-        <v>0.9999998095774011</v>
+        <v>0.9923593199999999</v>
       </c>
       <c r="Q16">
-        <v>0.9999998095774011</v>
+        <v>0.9923593199999999</v>
       </c>
       <c r="R16">
-        <v>0.9999999299327056</v>
+        <v>0.997134765</v>
       </c>
       <c r="S16">
-        <v>0.9999999299327056</v>
+        <v>0.997134765</v>
       </c>
       <c r="T16">
-        <v>0.9999999758528668</v>
+        <v>0.998981255</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000006109607833</v>
+        <v>0.99892553</v>
       </c>
       <c r="D17">
-        <v>0.9999755721867944</v>
+        <v>1.0002686</v>
       </c>
       <c r="E17">
-        <v>1.000006109607833</v>
+        <v>1.0002686</v>
       </c>
       <c r="F17">
-        <v>1.000006109607833</v>
+        <v>0.99892553</v>
       </c>
       <c r="G17">
-        <v>1.0000162891612</v>
+        <v>1.0007163</v>
       </c>
       <c r="H17">
-        <v>0.9999865619389987</v>
+        <v>0.9994090400000001</v>
       </c>
       <c r="I17">
-        <v>1.000006109607833</v>
+        <v>1.0002686</v>
       </c>
       <c r="J17">
-        <v>0.9999755721867944</v>
+        <v>1.0002686</v>
       </c>
       <c r="K17">
-        <v>1.000006109607833</v>
+        <v>1.0002686</v>
       </c>
       <c r="L17">
-        <v>1.000006109607833</v>
+        <v>1.0002686</v>
       </c>
       <c r="M17">
-        <v>0.9999908408973138</v>
+        <v>0.999597065</v>
       </c>
       <c r="N17">
-        <v>0.9999908408973138</v>
+        <v>0.999597065</v>
       </c>
       <c r="O17">
-        <v>0.9999894145778754</v>
+        <v>0.99953439</v>
       </c>
       <c r="P17">
-        <v>0.9999959304674869</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="Q17">
-        <v>0.9999959304674869</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="R17">
-        <v>0.9999984752525735</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="S17">
-        <v>0.9999984752525735</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="T17">
-        <v>0.9999994586850821</v>
+        <v>0.9999761116666668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000021505469089</v>
+        <v>0.9934059664383565</v>
       </c>
       <c r="D18">
-        <v>0.9999139980085786</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="E18">
-        <v>1.000021505469089</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="F18">
-        <v>1.000021505469089</v>
+        <v>0.9934059664383565</v>
       </c>
       <c r="G18">
-        <v>1.000057338934098</v>
+        <v>1.00439602</v>
       </c>
       <c r="H18">
-        <v>0.9999526944866547</v>
+        <v>0.9963732738356171</v>
       </c>
       <c r="I18">
-        <v>1.000021505469089</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="J18">
-        <v>0.9999139980085786</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="K18">
-        <v>1.000021505469089</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="L18">
-        <v>1.000021505469089</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="M18">
-        <v>0.9999677517388337</v>
+        <v>0.9975272367808221</v>
       </c>
       <c r="N18">
-        <v>0.9999677517388337</v>
+        <v>0.9975272367808221</v>
       </c>
       <c r="O18">
-        <v>0.9999627326547741</v>
+        <v>0.9971425824657537</v>
       </c>
       <c r="P18">
-        <v>0.9999856696489187</v>
+        <v>0.998900993561644</v>
       </c>
       <c r="Q18">
-        <v>0.9999856696489187</v>
+        <v>0.998900993561644</v>
       </c>
       <c r="R18">
-        <v>0.9999946286039612</v>
+        <v>0.9995878719520549</v>
       </c>
       <c r="S18">
-        <v>0.9999946286039612</v>
+        <v>0.9995878719520549</v>
       </c>
       <c r="T18">
-        <v>0.9999980913060996</v>
+        <v>0.9998534636073061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000050372258046</v>
+        <v>0.9922336247368421</v>
       </c>
       <c r="D19">
-        <v>0.9997985200528525</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="E19">
-        <v>1.000050372258046</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="F19">
-        <v>1.000050372258046</v>
+        <v>0.9922336247368421</v>
       </c>
       <c r="G19">
-        <v>1.000134326000111</v>
+        <v>1.005177581052631</v>
       </c>
       <c r="H19">
-        <v>0.9998891848892675</v>
+        <v>0.9957284863157894</v>
       </c>
       <c r="I19">
-        <v>1.000050372258046</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="J19">
-        <v>0.9997985200528525</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="K19">
-        <v>1.000050372258046</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="L19">
-        <v>1.000050372258046</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="M19">
-        <v>0.9999244461554491</v>
+        <v>0.9970876092105261</v>
       </c>
       <c r="N19">
-        <v>0.9999244461554491</v>
+        <v>0.9970876092105261</v>
       </c>
       <c r="O19">
-        <v>0.9999126924000552</v>
+        <v>0.9966345682456138</v>
       </c>
       <c r="P19">
-        <v>0.9999664215229812</v>
+        <v>0.9987056040350875</v>
       </c>
       <c r="Q19">
-        <v>0.9999664215229812</v>
+        <v>0.9987056040350875</v>
       </c>
       <c r="R19">
-        <v>0.9999874092067473</v>
+        <v>0.9995146014473681</v>
       </c>
       <c r="S19">
-        <v>0.9999874092067473</v>
+        <v>0.9995146014473681</v>
       </c>
       <c r="T19">
-        <v>0.9999955246193947</v>
+        <v>0.9998274121929823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.98280841</v>
+      </c>
+      <c r="D20">
+        <v>1.0042979</v>
+      </c>
+      <c r="E20">
+        <v>1.0042979</v>
+      </c>
+      <c r="F20">
+        <v>0.98280841</v>
+      </c>
+      <c r="G20">
+        <v>1.0114611</v>
+      </c>
+      <c r="H20">
+        <v>0.9905446299999997</v>
+      </c>
+      <c r="I20">
+        <v>1.0042979</v>
+      </c>
+      <c r="J20">
+        <v>1.0042979</v>
+      </c>
+      <c r="K20">
+        <v>1.0042979</v>
+      </c>
+      <c r="L20">
+        <v>1.0042979</v>
+      </c>
+      <c r="M20">
+        <v>0.9935531549999999</v>
+      </c>
+      <c r="N20">
+        <v>0.9935531549999999</v>
+      </c>
+      <c r="O20">
+        <v>0.9925503133333331</v>
+      </c>
+      <c r="P20">
+        <v>0.9971347366666664</v>
+      </c>
+      <c r="Q20">
+        <v>0.9971347366666664</v>
+      </c>
+      <c r="R20">
+        <v>0.9989255274999997</v>
+      </c>
+      <c r="S20">
+        <v>0.9989255274999997</v>
+      </c>
+      <c r="T20">
+        <v>0.9996179733333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.013698937876685</v>
+      </c>
+      <c r="D21">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="E21">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="F21">
+        <v>1.013698937876685</v>
+      </c>
+      <c r="G21">
+        <v>0.990867370997915</v>
+      </c>
+      <c r="H21">
+        <v>1.007534403626745</v>
+      </c>
+      <c r="I21">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="J21">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="K21">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="L21">
+        <v>0.9965752647255784</v>
+      </c>
+      <c r="M21">
+        <v>1.005137101301132</v>
+      </c>
+      <c r="N21">
+        <v>1.005137101301132</v>
+      </c>
+      <c r="O21">
+        <v>1.005936202076336</v>
+      </c>
+      <c r="P21">
+        <v>1.002283155775947</v>
+      </c>
+      <c r="Q21">
+        <v>1.002283155775947</v>
+      </c>
+      <c r="R21">
+        <v>1.000856183013355</v>
+      </c>
+      <c r="S21">
+        <v>1.000856183013355</v>
+      </c>
+      <c r="T21">
+        <v>1.00030441777968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.003657083884469</v>
+      </c>
+      <c r="D22">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="E22">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="F22">
+        <v>1.003657083884469</v>
+      </c>
+      <c r="G22">
+        <v>0.9975619373064037</v>
+      </c>
+      <c r="H22">
+        <v>1.002011394690566</v>
+      </c>
+      <c r="I22">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="J22">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="K22">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="L22">
+        <v>0.9990857270733903</v>
+      </c>
+      <c r="M22">
+        <v>1.00137140547893</v>
+      </c>
+      <c r="N22">
+        <v>1.00137140547893</v>
+      </c>
+      <c r="O22">
+        <v>1.001584735216142</v>
+      </c>
+      <c r="P22">
+        <v>1.000609512677083</v>
+      </c>
+      <c r="Q22">
+        <v>1.000609512677083</v>
+      </c>
+      <c r="R22">
+        <v>1.00022856627616</v>
+      </c>
+      <c r="S22">
+        <v>1.00022856627616</v>
+      </c>
+      <c r="T22">
+        <v>1.000081266183602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.0043788021237</v>
+      </c>
+      <c r="D23">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="E23">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="F23">
+        <v>1.0043788021237</v>
+      </c>
+      <c r="G23">
+        <v>0.9970808002566058</v>
+      </c>
+      <c r="H23">
+        <v>1.002408336125606</v>
+      </c>
+      <c r="I23">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="J23">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="K23">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="L23">
+        <v>0.9989053005176631</v>
+      </c>
+      <c r="M23">
+        <v>1.001642051320681</v>
+      </c>
+      <c r="N23">
+        <v>1.001642051320681</v>
+      </c>
+      <c r="O23">
+        <v>1.00189747958899</v>
+      </c>
+      <c r="P23">
+        <v>1.000729801053009</v>
+      </c>
+      <c r="Q23">
+        <v>1.000729801053009</v>
+      </c>
+      <c r="R23">
+        <v>1.000273675919172</v>
+      </c>
+      <c r="S23">
+        <v>1.000273675919172</v>
+      </c>
+      <c r="T23">
+        <v>1.000097306676484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001135447453925</v>
+      </c>
+      <c r="D24">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="E24">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="F24">
+        <v>1.001135447453925</v>
+      </c>
+      <c r="G24">
+        <v>0.9992430441352025</v>
+      </c>
+      <c r="H24">
+        <v>1.000624489943478</v>
+      </c>
+      <c r="I24">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="J24">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="K24">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="L24">
+        <v>0.9997161419574135</v>
+      </c>
+      <c r="M24">
+        <v>1.000425794705669</v>
+      </c>
+      <c r="N24">
+        <v>1.000425794705669</v>
+      </c>
+      <c r="O24">
+        <v>1.000492026451606</v>
+      </c>
+      <c r="P24">
+        <v>1.000189243789584</v>
+      </c>
+      <c r="Q24">
+        <v>1.000189243789584</v>
+      </c>
+      <c r="R24">
+        <v>1.000070968331541</v>
+      </c>
+      <c r="S24">
+        <v>1.000070968331541</v>
+      </c>
+      <c r="T24">
+        <v>1.000025234567474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9865551178094323</v>
+      </c>
+      <c r="D25">
+        <v>1.003361225949015</v>
+      </c>
+      <c r="E25">
+        <v>1.003361225949015</v>
+      </c>
+      <c r="F25">
+        <v>0.9865551178094323</v>
+      </c>
+      <c r="G25">
+        <v>1.008963268432797</v>
+      </c>
+      <c r="H25">
+        <v>0.9926053137347014</v>
+      </c>
+      <c r="I25">
+        <v>1.003361225949015</v>
+      </c>
+      <c r="J25">
+        <v>1.003361225949015</v>
+      </c>
+      <c r="K25">
+        <v>1.003361225949015</v>
+      </c>
+      <c r="L25">
+        <v>1.003361225949015</v>
+      </c>
+      <c r="M25">
+        <v>0.9949581718792235</v>
+      </c>
+      <c r="N25">
+        <v>0.9949581718792235</v>
+      </c>
+      <c r="O25">
+        <v>0.9941738858310495</v>
+      </c>
+      <c r="P25">
+        <v>0.9977591899024872</v>
+      </c>
+      <c r="Q25">
+        <v>0.9977591899024872</v>
+      </c>
+      <c r="R25">
+        <v>0.9991596989141192</v>
+      </c>
+      <c r="S25">
+        <v>0.9991596989141192</v>
+      </c>
+      <c r="T25">
+        <v>0.9997012296373292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9963987205713651</v>
+      </c>
+      <c r="D26">
+        <v>1.000900328969975</v>
+      </c>
+      <c r="E26">
+        <v>1.000900328969975</v>
+      </c>
+      <c r="F26">
+        <v>0.9963987205713651</v>
+      </c>
+      <c r="G26">
+        <v>1.002400855753909</v>
+      </c>
+      <c r="H26">
+        <v>0.9980192913462735</v>
+      </c>
+      <c r="I26">
+        <v>1.000900328969975</v>
+      </c>
+      <c r="J26">
+        <v>1.000900328969975</v>
+      </c>
+      <c r="K26">
+        <v>1.000900328969975</v>
+      </c>
+      <c r="L26">
+        <v>1.000900328969975</v>
+      </c>
+      <c r="M26">
+        <v>0.99864952477067</v>
+      </c>
+      <c r="N26">
+        <v>0.99864952477067</v>
+      </c>
+      <c r="O26">
+        <v>0.9984394469625378</v>
+      </c>
+      <c r="P26">
+        <v>0.9993997928371051</v>
+      </c>
+      <c r="Q26">
+        <v>0.9993997928371051</v>
+      </c>
+      <c r="R26">
+        <v>0.9997749268703225</v>
+      </c>
+      <c r="S26">
+        <v>0.9997749268703225</v>
+      </c>
+      <c r="T26">
+        <v>0.9999199757635789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9989753932231412</v>
+      </c>
+      <c r="D27">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="E27">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="F27">
+        <v>0.9989753932231412</v>
+      </c>
+      <c r="G27">
+        <v>1.000683095234274</v>
+      </c>
+      <c r="H27">
+        <v>0.9994364611034718</v>
+      </c>
+      <c r="I27">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="J27">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="K27">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="L27">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="M27">
+        <v>0.9996157719673913</v>
+      </c>
+      <c r="N27">
+        <v>0.9996157719673913</v>
+      </c>
+      <c r="O27">
+        <v>0.9995560016794182</v>
+      </c>
+      <c r="P27">
+        <v>0.9998292315488079</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998292315488079</v>
+      </c>
+      <c r="R27">
+        <v>0.9999359613395162</v>
+      </c>
+      <c r="S27">
+        <v>0.9999359613395162</v>
+      </c>
+      <c r="T27">
+        <v>0.9999772336159684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9982216458091032</v>
+      </c>
+      <c r="D28">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="E28">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="F28">
+        <v>0.9982216458091032</v>
+      </c>
+      <c r="G28">
+        <v>1.001185584223738</v>
+      </c>
+      <c r="H28">
+        <v>0.9990218994863453</v>
+      </c>
+      <c r="I28">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="J28">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="K28">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="L28">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="M28">
+        <v>0.9993331182621927</v>
+      </c>
+      <c r="N28">
+        <v>0.9993331182621927</v>
+      </c>
+      <c r="O28">
+        <v>0.9992293786702436</v>
+      </c>
+      <c r="P28">
+        <v>0.9997036090798893</v>
+      </c>
+      <c r="Q28">
+        <v>0.9997036090798893</v>
+      </c>
+      <c r="R28">
+        <v>0.9998888544887375</v>
+      </c>
+      <c r="S28">
+        <v>0.9998888544887375</v>
+      </c>
+      <c r="T28">
+        <v>0.9999604836108388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001493718835537</v>
+      </c>
+      <c r="D29">
+        <v>0.9996265725234511</v>
+      </c>
+      <c r="E29">
+        <v>0.9996265725234511</v>
+      </c>
+      <c r="F29">
+        <v>1.001493718835537</v>
+      </c>
+      <c r="G29">
+        <v>0.9990041999460266</v>
+      </c>
+      <c r="H29">
+        <v>1.000821551308823</v>
+      </c>
+      <c r="I29">
+        <v>0.9996265725234511</v>
+      </c>
+      <c r="J29">
+        <v>0.9996265725234511</v>
+      </c>
+      <c r="K29">
+        <v>0.9996265725234511</v>
+      </c>
+      <c r="L29">
+        <v>0.9996265725234511</v>
+      </c>
+      <c r="M29">
+        <v>1.000560145679494</v>
+      </c>
+      <c r="N29">
+        <v>1.000560145679494</v>
+      </c>
+      <c r="O29">
+        <v>1.00064728088927</v>
+      </c>
+      <c r="P29">
+        <v>1.00024895462748</v>
+      </c>
+      <c r="Q29">
+        <v>1.00024895462748</v>
+      </c>
+      <c r="R29">
+        <v>1.000093359101473</v>
+      </c>
+      <c r="S29">
+        <v>1.000093359101473</v>
+      </c>
+      <c r="T29">
+        <v>1.000033197943457</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.993782478749851</v>
+        <v>0.997580506387767</v>
       </c>
       <c r="D4">
-        <v>1.001554384044215</v>
+        <v>1.000604876704631</v>
       </c>
       <c r="E4">
-        <v>1.001554384044215</v>
+        <v>1.000604876704631</v>
       </c>
       <c r="F4">
-        <v>0.993782478749851</v>
+        <v>0.997580506387767</v>
       </c>
       <c r="G4">
-        <v>1.004145017360035</v>
+        <v>1.001613001145916</v>
       </c>
       <c r="H4">
-        <v>0.9965803609245277</v>
+        <v>0.9986692761689829</v>
       </c>
       <c r="I4">
-        <v>1.001554384044215</v>
+        <v>1.000604876704631</v>
       </c>
       <c r="J4">
-        <v>1.001554384044215</v>
+        <v>1.000604876704631</v>
       </c>
       <c r="K4">
-        <v>1.001554384044215</v>
+        <v>1.000604876704631</v>
       </c>
       <c r="L4">
-        <v>1.001554384044215</v>
+        <v>1.000604876704631</v>
       </c>
       <c r="M4">
-        <v>0.9976684313970331</v>
+        <v>0.999092691546199</v>
       </c>
       <c r="N4">
-        <v>0.9976684313970331</v>
+        <v>0.999092691546199</v>
       </c>
       <c r="O4">
-        <v>0.9973057412395313</v>
+        <v>0.998951553087127</v>
       </c>
       <c r="P4">
-        <v>0.9989637489460937</v>
+        <v>0.9995967532656763</v>
       </c>
       <c r="Q4">
-        <v>0.9989637489460937</v>
+        <v>0.9995967532656763</v>
       </c>
       <c r="R4">
-        <v>0.9996114077206241</v>
+        <v>0.9998487841254149</v>
       </c>
       <c r="S4">
-        <v>0.9996114077206241</v>
+        <v>0.9998487841254149</v>
       </c>
       <c r="T4">
-        <v>0.9998618348611764</v>
+        <v>0.999946235636093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9968818568587916</v>
+        <v>0.9828084099999981</v>
       </c>
       <c r="D5">
-        <v>1.000779538962537</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="E5">
-        <v>1.000779538962537</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="F5">
-        <v>0.9968818568587916</v>
+        <v>0.9828084099999981</v>
       </c>
       <c r="G5">
-        <v>1.002078768645533</v>
+        <v>1.011461100000005</v>
       </c>
       <c r="H5">
-        <v>0.9982850190922193</v>
+        <v>0.9905446300000033</v>
       </c>
       <c r="I5">
-        <v>1.000779538962537</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="J5">
-        <v>1.000779538962537</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="K5">
-        <v>1.000779538962537</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="L5">
-        <v>1.000779538962537</v>
+        <v>1.004297899999994</v>
       </c>
       <c r="M5">
-        <v>0.9988306979106641</v>
+        <v>0.993553154999996</v>
       </c>
       <c r="N5">
-        <v>0.9988306979106641</v>
+        <v>0.993553154999996</v>
       </c>
       <c r="O5">
-        <v>0.9986488049711825</v>
+        <v>0.9925503133333318</v>
       </c>
       <c r="P5">
-        <v>0.9994803115946217</v>
+        <v>0.9971347366666619</v>
       </c>
       <c r="Q5">
-        <v>0.9994803115946217</v>
+        <v>0.9971347366666619</v>
       </c>
       <c r="R5">
-        <v>0.9998051184366004</v>
+        <v>0.9989255274999949</v>
       </c>
       <c r="S5">
-        <v>0.9998051184366004</v>
+        <v>0.9989255274999949</v>
       </c>
       <c r="T5">
-        <v>0.999930710247359</v>
+        <v>0.9996179733333311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9901951211133433</v>
+        <v>0.993782478749851</v>
       </c>
       <c r="D6">
-        <v>1.002451222775318</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="E6">
-        <v>1.002451222775318</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="F6">
-        <v>0.9901951211133433</v>
+        <v>0.993782478749851</v>
       </c>
       <c r="G6">
-        <v>1.006536608455751</v>
+        <v>1.004145017360035</v>
       </c>
       <c r="H6">
-        <v>0.9946073176634632</v>
+        <v>0.9965803609245277</v>
       </c>
       <c r="I6">
-        <v>1.002451222775318</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="J6">
-        <v>1.002451222775318</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="K6">
-        <v>1.002451222775318</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="L6">
-        <v>1.002451222775318</v>
+        <v>1.001554384044215</v>
       </c>
       <c r="M6">
-        <v>0.9963231719443304</v>
+        <v>0.9976684313970331</v>
       </c>
       <c r="N6">
-        <v>0.9963231719443304</v>
+        <v>0.9976684313970331</v>
       </c>
       <c r="O6">
-        <v>0.9957512205173747</v>
+        <v>0.9973057412395313</v>
       </c>
       <c r="P6">
-        <v>0.9983658555546594</v>
+        <v>0.9989637489460937</v>
       </c>
       <c r="Q6">
-        <v>0.9983658555546594</v>
+        <v>0.9989637489460937</v>
       </c>
       <c r="R6">
-        <v>0.999387197359824</v>
+        <v>0.9996114077206241</v>
       </c>
       <c r="S6">
-        <v>0.999387197359824</v>
+        <v>0.9996114077206241</v>
       </c>
       <c r="T6">
-        <v>0.9997821192597517</v>
+        <v>0.9998618348611764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996336239025042</v>
+        <v>0.9968818568587916</v>
       </c>
       <c r="D7">
-        <v>1.000091596669249</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="E7">
-        <v>1.000091596669249</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="F7">
-        <v>0.9996336239025042</v>
+        <v>0.9968818568587916</v>
       </c>
       <c r="G7">
-        <v>1.00024425504969</v>
+        <v>1.002078768645533</v>
       </c>
       <c r="H7">
-        <v>0.9997984899703968</v>
+        <v>0.9982850190922193</v>
       </c>
       <c r="I7">
-        <v>1.000091596669249</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="J7">
-        <v>1.000091596669249</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="K7">
-        <v>1.000091596669249</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="L7">
-        <v>1.000091596669249</v>
+        <v>1.000779538962537</v>
       </c>
       <c r="M7">
-        <v>0.9998626102858765</v>
+        <v>0.9988306979106641</v>
       </c>
       <c r="N7">
-        <v>0.9998626102858765</v>
+        <v>0.9988306979106641</v>
       </c>
       <c r="O7">
-        <v>0.9998412368473834</v>
+        <v>0.9986488049711825</v>
       </c>
       <c r="P7">
-        <v>0.999938939080334</v>
+        <v>0.9994803115946217</v>
       </c>
       <c r="Q7">
-        <v>0.999938939080334</v>
+        <v>0.9994803115946217</v>
       </c>
       <c r="R7">
-        <v>0.9999771034775627</v>
+        <v>0.9998051184366004</v>
       </c>
       <c r="S7">
-        <v>0.9999771034775627</v>
+        <v>0.9998051184366004</v>
       </c>
       <c r="T7">
-        <v>0.9999918598217228</v>
+        <v>0.999930710247359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999755721867947</v>
+        <v>0.9901951211133433</v>
       </c>
       <c r="D8">
-        <v>1.000006109607833</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="E8">
-        <v>1.000006109607833</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="F8">
-        <v>0.9999755721867947</v>
+        <v>0.9901951211133433</v>
       </c>
       <c r="G8">
-        <v>1.0000162891612</v>
+        <v>1.006536608455751</v>
       </c>
       <c r="H8">
-        <v>0.9999865619389987</v>
+        <v>0.9946073176634632</v>
       </c>
       <c r="I8">
-        <v>1.000006109607833</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="J8">
-        <v>1.000006109607833</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="K8">
-        <v>1.000006109607833</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="L8">
-        <v>1.000006109607833</v>
+        <v>1.002451222775318</v>
       </c>
       <c r="M8">
-        <v>0.9999908408973139</v>
+        <v>0.9963231719443304</v>
       </c>
       <c r="N8">
-        <v>0.9999908408973139</v>
+        <v>0.9963231719443304</v>
       </c>
       <c r="O8">
-        <v>0.9999894145778755</v>
+        <v>0.9957512205173747</v>
       </c>
       <c r="P8">
-        <v>0.9999959304674869</v>
+        <v>0.9983658555546594</v>
       </c>
       <c r="Q8">
-        <v>0.9999959304674869</v>
+        <v>0.9983658555546594</v>
       </c>
       <c r="R8">
-        <v>0.9999984752525735</v>
+        <v>0.999387197359824</v>
       </c>
       <c r="S8">
-        <v>0.9999984752525735</v>
+        <v>0.999387197359824</v>
       </c>
       <c r="T8">
-        <v>0.9999994586850821</v>
+        <v>0.9997821192597517</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994607565343674</v>
+        <v>0.9996336239025042</v>
       </c>
       <c r="D9">
-        <v>1.000134813930807</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="E9">
-        <v>1.000134813930807</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="F9">
-        <v>0.9994607565343674</v>
+        <v>0.9996336239025042</v>
       </c>
       <c r="G9">
-        <v>1.000359499314318</v>
+        <v>1.00024425504969</v>
       </c>
       <c r="H9">
-        <v>0.9997034129494882</v>
+        <v>0.9997984899703968</v>
       </c>
       <c r="I9">
-        <v>1.000134813930807</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="J9">
-        <v>1.000134813930807</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="K9">
-        <v>1.000134813930807</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="L9">
-        <v>1.000134813930807</v>
+        <v>1.000091596669249</v>
       </c>
       <c r="M9">
-        <v>0.9997977852325872</v>
+        <v>0.9998626102858765</v>
       </c>
       <c r="N9">
-        <v>0.9997977852325872</v>
+        <v>0.9998626102858765</v>
       </c>
       <c r="O9">
-        <v>0.9997663278048875</v>
+        <v>0.9998412368473834</v>
       </c>
       <c r="P9">
-        <v>0.9999101281319938</v>
+        <v>0.999938939080334</v>
       </c>
       <c r="Q9">
-        <v>0.9999101281319938</v>
+        <v>0.999938939080334</v>
       </c>
       <c r="R9">
-        <v>0.9999662995816971</v>
+        <v>0.9999771034775627</v>
       </c>
       <c r="S9">
-        <v>0.9999662995816971</v>
+        <v>0.9999771034775627</v>
       </c>
       <c r="T9">
-        <v>0.9999880184317659</v>
+        <v>0.9999918598217228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9900494882923959</v>
+        <v>0.9999755721867947</v>
       </c>
       <c r="D10">
-        <v>1.002487631059078</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="E10">
-        <v>1.002487631059078</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="F10">
-        <v>0.9900494882923959</v>
+        <v>0.9999755721867947</v>
       </c>
       <c r="G10">
-        <v>1.00663369730644</v>
+        <v>1.0000162891612</v>
       </c>
       <c r="H10">
-        <v>0.9945272196866869</v>
+        <v>0.9999865619389987</v>
       </c>
       <c r="I10">
-        <v>1.002487631059078</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="J10">
-        <v>1.002487631059078</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="K10">
-        <v>1.002487631059078</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="L10">
-        <v>1.002487631059078</v>
+        <v>1.000006109607833</v>
       </c>
       <c r="M10">
-        <v>0.9962685596757368</v>
+        <v>0.9999908408973139</v>
       </c>
       <c r="N10">
-        <v>0.9962685596757368</v>
+        <v>0.9999908408973139</v>
       </c>
       <c r="O10">
-        <v>0.9956881130127201</v>
+        <v>0.9999894145778755</v>
       </c>
       <c r="P10">
-        <v>0.9983415834701838</v>
+        <v>0.9999959304674869</v>
       </c>
       <c r="Q10">
-        <v>0.9983415834701838</v>
+        <v>0.9999959304674869</v>
       </c>
       <c r="R10">
-        <v>0.9993780953674073</v>
+        <v>0.9999984752525735</v>
       </c>
       <c r="S10">
-        <v>0.9993780953674073</v>
+        <v>0.9999984752525735</v>
       </c>
       <c r="T10">
-        <v>0.9997788830771258</v>
+        <v>0.9999994586850821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9937823213260251</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="D11">
-        <v>1.001554423466275</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="E11">
-        <v>1.001554423466275</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="F11">
-        <v>0.9937823213260251</v>
+        <v>0.9994607565343674</v>
       </c>
       <c r="G11">
-        <v>1.004145122192096</v>
+        <v>1.000359499314318</v>
       </c>
       <c r="H11">
-        <v>0.9965802745444359</v>
+        <v>0.9997034129494882</v>
       </c>
       <c r="I11">
-        <v>1.001554423466275</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="J11">
-        <v>1.001554423466275</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="K11">
-        <v>1.001554423466275</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="L11">
-        <v>1.001554423466275</v>
+        <v>1.000134813930807</v>
       </c>
       <c r="M11">
-        <v>0.9976683723961498</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="N11">
-        <v>0.9976683723961498</v>
+        <v>0.9997977852325872</v>
       </c>
       <c r="O11">
-        <v>0.9973056731122453</v>
+        <v>0.9997663278048875</v>
       </c>
       <c r="P11">
-        <v>0.9989637227528579</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="Q11">
-        <v>0.9989637227528579</v>
+        <v>0.9999101281319938</v>
       </c>
       <c r="R11">
-        <v>0.9996113979312121</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="S11">
-        <v>0.9996113979312121</v>
+        <v>0.9999662995816971</v>
       </c>
       <c r="T11">
-        <v>0.99986183141023</v>
+        <v>0.9999880184317659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9968193815368415</v>
+        <v>0.9900494882923959</v>
       </c>
       <c r="D12">
-        <v>1.00079515848421</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="E12">
-        <v>1.00079515848421</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="F12">
-        <v>0.9968193815368415</v>
+        <v>0.9900494882923959</v>
       </c>
       <c r="G12">
-        <v>1.002120420252632</v>
+        <v>1.00663369730644</v>
       </c>
       <c r="H12">
-        <v>0.9982506577684186</v>
+        <v>0.9945272196866869</v>
       </c>
       <c r="I12">
-        <v>1.00079515848421</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="J12">
-        <v>1.00079515848421</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="K12">
-        <v>1.00079515848421</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="L12">
-        <v>1.00079515848421</v>
+        <v>1.002487631059078</v>
       </c>
       <c r="M12">
-        <v>0.9988072700105255</v>
+        <v>0.9962685596757368</v>
       </c>
       <c r="N12">
-        <v>0.9988072700105255</v>
+        <v>0.9962685596757368</v>
       </c>
       <c r="O12">
-        <v>0.9986217325964898</v>
+        <v>0.9956881130127201</v>
       </c>
       <c r="P12">
-        <v>0.9994698995017535</v>
+        <v>0.9983415834701838</v>
       </c>
       <c r="Q12">
-        <v>0.9994698995017535</v>
+        <v>0.9983415834701838</v>
       </c>
       <c r="R12">
-        <v>0.9998012142473676</v>
+        <v>0.9993780953674073</v>
       </c>
       <c r="S12">
-        <v>0.9998012142473676</v>
+        <v>0.9993780953674073</v>
       </c>
       <c r="T12">
-        <v>0.9999293225017536</v>
+        <v>0.9997788830771258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001957005535424</v>
+        <v>0.9937823213260251</v>
       </c>
       <c r="D13">
-        <v>0.9995107516112183</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="E13">
-        <v>0.9995107516112183</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="F13">
-        <v>1.001957005535424</v>
+        <v>0.9937823213260251</v>
       </c>
       <c r="G13">
-        <v>0.9986953334412961</v>
+        <v>1.004145122192096</v>
       </c>
       <c r="H13">
-        <v>1.001076349802816</v>
+        <v>0.9965802745444359</v>
       </c>
       <c r="I13">
-        <v>0.9995107516112183</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="J13">
-        <v>0.9995107516112183</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="K13">
-        <v>0.9995107516112183</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="L13">
-        <v>0.9995107516112183</v>
+        <v>1.001554423466275</v>
       </c>
       <c r="M13">
-        <v>1.000733878573321</v>
+        <v>0.9976683723961498</v>
       </c>
       <c r="N13">
-        <v>1.000733878573321</v>
+        <v>0.9976683723961498</v>
       </c>
       <c r="O13">
-        <v>1.00084803564982</v>
+        <v>0.9973056731122453</v>
       </c>
       <c r="P13">
-        <v>1.000326169585954</v>
+        <v>0.9989637227528579</v>
       </c>
       <c r="Q13">
-        <v>1.000326169585954</v>
+        <v>0.9989637227528579</v>
       </c>
       <c r="R13">
-        <v>1.00012231509227</v>
+        <v>0.9996113979312121</v>
       </c>
       <c r="S13">
-        <v>1.00012231509227</v>
+        <v>0.9996113979312121</v>
       </c>
       <c r="T13">
-        <v>1.000043490602199</v>
+        <v>0.99986183141023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9828084099999992</v>
+        <v>0.9968193815368415</v>
       </c>
       <c r="D14">
-        <v>1.004297899999999</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="E14">
-        <v>1.004297899999999</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="F14">
-        <v>0.9828084099999992</v>
+        <v>0.9968193815368415</v>
       </c>
       <c r="G14">
-        <v>1.011461099999999</v>
+        <v>1.002120420252632</v>
       </c>
       <c r="H14">
-        <v>0.9905446300000009</v>
+        <v>0.9982506577684186</v>
       </c>
       <c r="I14">
-        <v>1.004297899999999</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="J14">
-        <v>1.004297899999999</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="K14">
-        <v>1.004297899999999</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="L14">
-        <v>1.004297899999999</v>
+        <v>1.00079515848421</v>
       </c>
       <c r="M14">
-        <v>0.9935531549999991</v>
+        <v>0.9988072700105255</v>
       </c>
       <c r="N14">
-        <v>0.9935531549999991</v>
+        <v>0.9988072700105255</v>
       </c>
       <c r="O14">
-        <v>0.9925503133333331</v>
+        <v>0.9986217325964898</v>
       </c>
       <c r="P14">
-        <v>0.9971347366666657</v>
+        <v>0.9994698995017535</v>
       </c>
       <c r="Q14">
-        <v>0.9971347366666657</v>
+        <v>0.9994698995017535</v>
       </c>
       <c r="R14">
-        <v>0.9989255274999991</v>
+        <v>0.9998012142473676</v>
       </c>
       <c r="S14">
-        <v>0.9989255274999991</v>
+        <v>0.9998012142473676</v>
       </c>
       <c r="T14">
-        <v>0.9996179733333328</v>
+        <v>0.9999293225017536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.98280841</v>
+        <v>1.001957005535424</v>
       </c>
       <c r="D15">
-        <v>1.0042979</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="E15">
-        <v>1.0042979</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="F15">
-        <v>0.98280841</v>
+        <v>1.001957005535424</v>
       </c>
       <c r="G15">
-        <v>1.0114611</v>
+        <v>0.9986953334412961</v>
       </c>
       <c r="H15">
-        <v>0.99054463</v>
+        <v>1.001076349802816</v>
       </c>
       <c r="I15">
-        <v>1.0042979</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="J15">
-        <v>1.0042979</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>0.9995107516112183</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>1.000733878573321</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>1.000733878573321</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>1.00084803564982</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>1.000326169585954</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>1.000326169585954</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>1.00012231509227</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>1.00012231509227</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>1.000043490602199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.95415576</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="D16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="F16">
-        <v>0.95415576</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G16">
-        <v>1.0305628</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H16">
-        <v>0.9747856699999999</v>
+        <v>0.9905446300000009</v>
       </c>
       <c r="I16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="J16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="K16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L16">
-        <v>1.0114611</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="M16">
-        <v>0.98280843</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="N16">
-        <v>0.98280843</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="O16">
-        <v>0.9801341766666667</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P16">
-        <v>0.9923593199999999</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="Q16">
-        <v>0.9923593199999999</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="R16">
-        <v>0.997134765</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="S16">
-        <v>0.997134765</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="T16">
-        <v>0.998981255</v>
+        <v>0.9996179733333328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="D17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="E17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="F17">
-        <v>0.99892553</v>
+        <v>0.98280841</v>
       </c>
       <c r="G17">
-        <v>1.0007163</v>
+        <v>1.0114611</v>
       </c>
       <c r="H17">
-        <v>0.9994090400000001</v>
+        <v>0.99054463</v>
       </c>
       <c r="I17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="J17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="K17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>1.0002686</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>0.999597065</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>0.999597065</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>0.99953439</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>0.9998209100000001</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>0.9998209100000001</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>0.9999328325000001</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>0.9999328325000001</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>0.9999761116666668</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9934059664383565</v>
+        <v>0.95415576</v>
       </c>
       <c r="D18">
-        <v>1.001648507123288</v>
+        <v>1.0114611</v>
       </c>
       <c r="E18">
-        <v>1.001648507123288</v>
+        <v>1.0114611</v>
       </c>
       <c r="F18">
-        <v>0.9934059664383565</v>
+        <v>0.95415576</v>
       </c>
       <c r="G18">
-        <v>1.00439602</v>
+        <v>1.0305628</v>
       </c>
       <c r="H18">
-        <v>0.9963732738356171</v>
+        <v>0.9747856699999999</v>
       </c>
       <c r="I18">
-        <v>1.001648507123288</v>
+        <v>1.0114611</v>
       </c>
       <c r="J18">
-        <v>1.001648507123288</v>
+        <v>1.0114611</v>
       </c>
       <c r="K18">
-        <v>1.001648507123288</v>
+        <v>1.0114611</v>
       </c>
       <c r="L18">
-        <v>1.001648507123288</v>
+        <v>1.0114611</v>
       </c>
       <c r="M18">
-        <v>0.9975272367808221</v>
+        <v>0.98280843</v>
       </c>
       <c r="N18">
-        <v>0.9975272367808221</v>
+        <v>0.98280843</v>
       </c>
       <c r="O18">
-        <v>0.9971425824657537</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P18">
-        <v>0.998900993561644</v>
+        <v>0.9923593199999999</v>
       </c>
       <c r="Q18">
-        <v>0.998900993561644</v>
+        <v>0.9923593199999999</v>
       </c>
       <c r="R18">
-        <v>0.9995878719520549</v>
+        <v>0.997134765</v>
       </c>
       <c r="S18">
-        <v>0.9995878719520549</v>
+        <v>0.997134765</v>
       </c>
       <c r="T18">
-        <v>0.9998534636073061</v>
+        <v>0.998981255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9922336247368421</v>
+        <v>0.99892553</v>
       </c>
       <c r="D19">
-        <v>1.00194159368421</v>
+        <v>1.0002686</v>
       </c>
       <c r="E19">
-        <v>1.00194159368421</v>
+        <v>1.0002686</v>
       </c>
       <c r="F19">
-        <v>0.9922336247368421</v>
+        <v>0.99892553</v>
       </c>
       <c r="G19">
-        <v>1.005177581052631</v>
+        <v>1.0007163</v>
       </c>
       <c r="H19">
-        <v>0.9957284863157894</v>
+        <v>0.9994090400000001</v>
       </c>
       <c r="I19">
-        <v>1.00194159368421</v>
+        <v>1.0002686</v>
       </c>
       <c r="J19">
-        <v>1.00194159368421</v>
+        <v>1.0002686</v>
       </c>
       <c r="K19">
-        <v>1.00194159368421</v>
+        <v>1.0002686</v>
       </c>
       <c r="L19">
-        <v>1.00194159368421</v>
+        <v>1.0002686</v>
       </c>
       <c r="M19">
-        <v>0.9970876092105261</v>
+        <v>0.999597065</v>
       </c>
       <c r="N19">
-        <v>0.9970876092105261</v>
+        <v>0.999597065</v>
       </c>
       <c r="O19">
-        <v>0.9966345682456138</v>
+        <v>0.99953439</v>
       </c>
       <c r="P19">
-        <v>0.9987056040350875</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="Q19">
-        <v>0.9987056040350875</v>
+        <v>0.9998209100000001</v>
       </c>
       <c r="R19">
-        <v>0.9995146014473681</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="S19">
-        <v>0.9995146014473681</v>
+        <v>0.9999328325000001</v>
       </c>
       <c r="T19">
-        <v>0.9998274121929823</v>
+        <v>0.9999761116666668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.98280841</v>
+        <v>0.9934059664383565</v>
       </c>
       <c r="D20">
-        <v>1.0042979</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="E20">
-        <v>1.0042979</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="F20">
-        <v>0.98280841</v>
+        <v>0.9934059664383565</v>
       </c>
       <c r="G20">
-        <v>1.0114611</v>
+        <v>1.00439602</v>
       </c>
       <c r="H20">
-        <v>0.9905446299999997</v>
+        <v>0.9963732738356171</v>
       </c>
       <c r="I20">
-        <v>1.0042979</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="J20">
-        <v>1.0042979</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="K20">
-        <v>1.0042979</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="L20">
-        <v>1.0042979</v>
+        <v>1.001648507123288</v>
       </c>
       <c r="M20">
-        <v>0.9935531549999999</v>
+        <v>0.9975272367808221</v>
       </c>
       <c r="N20">
-        <v>0.9935531549999999</v>
+        <v>0.9975272367808221</v>
       </c>
       <c r="O20">
-        <v>0.9925503133333331</v>
+        <v>0.9971425824657537</v>
       </c>
       <c r="P20">
-        <v>0.9971347366666664</v>
+        <v>0.998900993561644</v>
       </c>
       <c r="Q20">
-        <v>0.9971347366666664</v>
+        <v>0.998900993561644</v>
       </c>
       <c r="R20">
-        <v>0.9989255274999997</v>
+        <v>0.9995878719520549</v>
       </c>
       <c r="S20">
-        <v>0.9989255274999997</v>
+        <v>0.9995878719520549</v>
       </c>
       <c r="T20">
-        <v>0.9996179733333331</v>
+        <v>0.9998534636073061</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.013698937876685</v>
+        <v>0.9922336247368421</v>
       </c>
       <c r="D21">
-        <v>0.9965752647255784</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="E21">
-        <v>0.9965752647255784</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="F21">
-        <v>1.013698937876685</v>
+        <v>0.9922336247368421</v>
       </c>
       <c r="G21">
-        <v>0.990867370997915</v>
+        <v>1.005177581052631</v>
       </c>
       <c r="H21">
-        <v>1.007534403626745</v>
+        <v>0.9957284863157894</v>
       </c>
       <c r="I21">
-        <v>0.9965752647255784</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="J21">
-        <v>0.9965752647255784</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="K21">
-        <v>0.9965752647255784</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="L21">
-        <v>0.9965752647255784</v>
+        <v>1.00194159368421</v>
       </c>
       <c r="M21">
-        <v>1.005137101301132</v>
+        <v>0.9970876092105261</v>
       </c>
       <c r="N21">
-        <v>1.005137101301132</v>
+        <v>0.9970876092105261</v>
       </c>
       <c r="O21">
-        <v>1.005936202076336</v>
+        <v>0.9966345682456138</v>
       </c>
       <c r="P21">
-        <v>1.002283155775947</v>
+        <v>0.9987056040350875</v>
       </c>
       <c r="Q21">
-        <v>1.002283155775947</v>
+        <v>0.9987056040350875</v>
       </c>
       <c r="R21">
-        <v>1.000856183013355</v>
+        <v>0.9995146014473681</v>
       </c>
       <c r="S21">
-        <v>1.000856183013355</v>
+        <v>0.9995146014473681</v>
       </c>
       <c r="T21">
-        <v>1.00030441777968</v>
+        <v>0.9998274121929823</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003657083884469</v>
+        <v>0.98280841</v>
       </c>
       <c r="D22">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="E22">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="F22">
-        <v>1.003657083884469</v>
+        <v>0.98280841</v>
       </c>
       <c r="G22">
-        <v>0.9975619373064037</v>
+        <v>1.0114611</v>
       </c>
       <c r="H22">
-        <v>1.002011394690566</v>
+        <v>0.9905446299999997</v>
       </c>
       <c r="I22">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="J22">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="K22">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="L22">
-        <v>0.9990857270733903</v>
+        <v>1.0042979</v>
       </c>
       <c r="M22">
-        <v>1.00137140547893</v>
+        <v>0.9935531549999999</v>
       </c>
       <c r="N22">
-        <v>1.00137140547893</v>
+        <v>0.9935531549999999</v>
       </c>
       <c r="O22">
-        <v>1.001584735216142</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P22">
-        <v>1.000609512677083</v>
+        <v>0.9971347366666664</v>
       </c>
       <c r="Q22">
-        <v>1.000609512677083</v>
+        <v>0.9971347366666664</v>
       </c>
       <c r="R22">
-        <v>1.00022856627616</v>
+        <v>0.9989255274999997</v>
       </c>
       <c r="S22">
-        <v>1.00022856627616</v>
+        <v>0.9989255274999997</v>
       </c>
       <c r="T22">
-        <v>1.000081266183602</v>
+        <v>0.9996179733333331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.0043788021237</v>
+        <v>1.013698937876685</v>
       </c>
       <c r="D23">
-        <v>0.9989053005176631</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="E23">
-        <v>0.9989053005176631</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="F23">
-        <v>1.0043788021237</v>
+        <v>1.013698937876685</v>
       </c>
       <c r="G23">
-        <v>0.9970808002566058</v>
+        <v>0.990867370997915</v>
       </c>
       <c r="H23">
-        <v>1.002408336125606</v>
+        <v>1.007534403626745</v>
       </c>
       <c r="I23">
-        <v>0.9989053005176631</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="J23">
-        <v>0.9989053005176631</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="K23">
-        <v>0.9989053005176631</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="L23">
-        <v>0.9989053005176631</v>
+        <v>0.9965752647255784</v>
       </c>
       <c r="M23">
-        <v>1.001642051320681</v>
+        <v>1.005137101301132</v>
       </c>
       <c r="N23">
-        <v>1.001642051320681</v>
+        <v>1.005137101301132</v>
       </c>
       <c r="O23">
-        <v>1.00189747958899</v>
+        <v>1.005936202076336</v>
       </c>
       <c r="P23">
-        <v>1.000729801053009</v>
+        <v>1.002283155775947</v>
       </c>
       <c r="Q23">
-        <v>1.000729801053009</v>
+        <v>1.002283155775947</v>
       </c>
       <c r="R23">
-        <v>1.000273675919172</v>
+        <v>1.000856183013355</v>
       </c>
       <c r="S23">
-        <v>1.000273675919172</v>
+        <v>1.000856183013355</v>
       </c>
       <c r="T23">
-        <v>1.000097306676484</v>
+        <v>1.00030441777968</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001135447453925</v>
+        <v>1.003657083884469</v>
       </c>
       <c r="D24">
-        <v>0.9997161419574135</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="E24">
-        <v>0.9997161419574135</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="F24">
-        <v>1.001135447453925</v>
+        <v>1.003657083884469</v>
       </c>
       <c r="G24">
-        <v>0.9992430441352025</v>
+        <v>0.9975619373064037</v>
       </c>
       <c r="H24">
-        <v>1.000624489943478</v>
+        <v>1.002011394690566</v>
       </c>
       <c r="I24">
-        <v>0.9997161419574135</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="J24">
-        <v>0.9997161419574135</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="K24">
-        <v>0.9997161419574135</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="L24">
-        <v>0.9997161419574135</v>
+        <v>0.9990857270733903</v>
       </c>
       <c r="M24">
-        <v>1.000425794705669</v>
+        <v>1.00137140547893</v>
       </c>
       <c r="N24">
-        <v>1.000425794705669</v>
+        <v>1.00137140547893</v>
       </c>
       <c r="O24">
-        <v>1.000492026451606</v>
+        <v>1.001584735216142</v>
       </c>
       <c r="P24">
-        <v>1.000189243789584</v>
+        <v>1.000609512677083</v>
       </c>
       <c r="Q24">
-        <v>1.000189243789584</v>
+        <v>1.000609512677083</v>
       </c>
       <c r="R24">
-        <v>1.000070968331541</v>
+        <v>1.00022856627616</v>
       </c>
       <c r="S24">
-        <v>1.000070968331541</v>
+        <v>1.00022856627616</v>
       </c>
       <c r="T24">
-        <v>1.000025234567474</v>
+        <v>1.000081266183602</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9865551178094323</v>
+        <v>1.0043788021237</v>
       </c>
       <c r="D25">
-        <v>1.003361225949015</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="E25">
-        <v>1.003361225949015</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="F25">
-        <v>0.9865551178094323</v>
+        <v>1.0043788021237</v>
       </c>
       <c r="G25">
-        <v>1.008963268432797</v>
+        <v>0.9970808002566058</v>
       </c>
       <c r="H25">
-        <v>0.9926053137347014</v>
+        <v>1.002408336125606</v>
       </c>
       <c r="I25">
-        <v>1.003361225949015</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="J25">
-        <v>1.003361225949015</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="K25">
-        <v>1.003361225949015</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="L25">
-        <v>1.003361225949015</v>
+        <v>0.9989053005176631</v>
       </c>
       <c r="M25">
-        <v>0.9949581718792235</v>
+        <v>1.001642051320681</v>
       </c>
       <c r="N25">
-        <v>0.9949581718792235</v>
+        <v>1.001642051320681</v>
       </c>
       <c r="O25">
-        <v>0.9941738858310495</v>
+        <v>1.00189747958899</v>
       </c>
       <c r="P25">
-        <v>0.9977591899024872</v>
+        <v>1.000729801053009</v>
       </c>
       <c r="Q25">
-        <v>0.9977591899024872</v>
+        <v>1.000729801053009</v>
       </c>
       <c r="R25">
-        <v>0.9991596989141192</v>
+        <v>1.000273675919172</v>
       </c>
       <c r="S25">
-        <v>0.9991596989141192</v>
+        <v>1.000273675919172</v>
       </c>
       <c r="T25">
-        <v>0.9997012296373292</v>
+        <v>1.000097306676484</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9963987205713651</v>
+        <v>1.001135447453925</v>
       </c>
       <c r="D26">
-        <v>1.000900328969975</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="E26">
-        <v>1.000900328969975</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="F26">
-        <v>0.9963987205713651</v>
+        <v>1.001135447453925</v>
       </c>
       <c r="G26">
-        <v>1.002400855753909</v>
+        <v>0.9992430441352025</v>
       </c>
       <c r="H26">
-        <v>0.9980192913462735</v>
+        <v>1.000624489943478</v>
       </c>
       <c r="I26">
-        <v>1.000900328969975</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="J26">
-        <v>1.000900328969975</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="K26">
-        <v>1.000900328969975</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="L26">
-        <v>1.000900328969975</v>
+        <v>0.9997161419574135</v>
       </c>
       <c r="M26">
-        <v>0.99864952477067</v>
+        <v>1.000425794705669</v>
       </c>
       <c r="N26">
-        <v>0.99864952477067</v>
+        <v>1.000425794705669</v>
       </c>
       <c r="O26">
-        <v>0.9984394469625378</v>
+        <v>1.000492026451606</v>
       </c>
       <c r="P26">
-        <v>0.9993997928371051</v>
+        <v>1.000189243789584</v>
       </c>
       <c r="Q26">
-        <v>0.9993997928371051</v>
+        <v>1.000189243789584</v>
       </c>
       <c r="R26">
-        <v>0.9997749268703225</v>
+        <v>1.000070968331541</v>
       </c>
       <c r="S26">
-        <v>0.9997749268703225</v>
+        <v>1.000070968331541</v>
       </c>
       <c r="T26">
-        <v>0.9999199757635789</v>
+        <v>1.000025234567474</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9989753932231412</v>
+        <v>0.9865551178094323</v>
       </c>
       <c r="D27">
-        <v>1.000256150711641</v>
+        <v>1.003361225949015</v>
       </c>
       <c r="E27">
-        <v>1.000256150711641</v>
+        <v>1.003361225949015</v>
       </c>
       <c r="F27">
-        <v>0.9989753932231412</v>
+        <v>0.9865551178094323</v>
       </c>
       <c r="G27">
-        <v>1.000683095234274</v>
+        <v>1.008963268432797</v>
       </c>
       <c r="H27">
-        <v>0.9994364611034718</v>
+        <v>0.9926053137347014</v>
       </c>
       <c r="I27">
-        <v>1.000256150711641</v>
+        <v>1.003361225949015</v>
       </c>
       <c r="J27">
-        <v>1.000256150711641</v>
+        <v>1.003361225949015</v>
       </c>
       <c r="K27">
-        <v>1.000256150711641</v>
+        <v>1.003361225949015</v>
       </c>
       <c r="L27">
-        <v>1.000256150711641</v>
+        <v>1.003361225949015</v>
       </c>
       <c r="M27">
-        <v>0.9996157719673913</v>
+        <v>0.9949581718792235</v>
       </c>
       <c r="N27">
-        <v>0.9996157719673913</v>
+        <v>0.9949581718792235</v>
       </c>
       <c r="O27">
-        <v>0.9995560016794182</v>
+        <v>0.9941738858310495</v>
       </c>
       <c r="P27">
-        <v>0.9998292315488079</v>
+        <v>0.9977591899024872</v>
       </c>
       <c r="Q27">
-        <v>0.9998292315488079</v>
+        <v>0.9977591899024872</v>
       </c>
       <c r="R27">
-        <v>0.9999359613395162</v>
+        <v>0.9991596989141192</v>
       </c>
       <c r="S27">
-        <v>0.9999359613395162</v>
+        <v>0.9991596989141192</v>
       </c>
       <c r="T27">
-        <v>0.9999772336159684</v>
+        <v>0.9997012296373292</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9982216458091032</v>
+        <v>0.9963987205713651</v>
       </c>
       <c r="D28">
-        <v>1.000444590715282</v>
+        <v>1.000900328969975</v>
       </c>
       <c r="E28">
-        <v>1.000444590715282</v>
+        <v>1.000900328969975</v>
       </c>
       <c r="F28">
-        <v>0.9982216458091032</v>
+        <v>0.9963987205713651</v>
       </c>
       <c r="G28">
-        <v>1.001185584223738</v>
+        <v>1.002400855753909</v>
       </c>
       <c r="H28">
-        <v>0.9990218994863453</v>
+        <v>0.9980192913462735</v>
       </c>
       <c r="I28">
-        <v>1.000444590715282</v>
+        <v>1.000900328969975</v>
       </c>
       <c r="J28">
-        <v>1.000444590715282</v>
+        <v>1.000900328969975</v>
       </c>
       <c r="K28">
-        <v>1.000444590715282</v>
+        <v>1.000900328969975</v>
       </c>
       <c r="L28">
-        <v>1.000444590715282</v>
+        <v>1.000900328969975</v>
       </c>
       <c r="M28">
-        <v>0.9993331182621927</v>
+        <v>0.99864952477067</v>
       </c>
       <c r="N28">
-        <v>0.9993331182621927</v>
+        <v>0.99864952477067</v>
       </c>
       <c r="O28">
-        <v>0.9992293786702436</v>
+        <v>0.9984394469625378</v>
       </c>
       <c r="P28">
-        <v>0.9997036090798893</v>
+        <v>0.9993997928371051</v>
       </c>
       <c r="Q28">
-        <v>0.9997036090798893</v>
+        <v>0.9993997928371051</v>
       </c>
       <c r="R28">
-        <v>0.9998888544887375</v>
+        <v>0.9997749268703225</v>
       </c>
       <c r="S28">
-        <v>0.9998888544887375</v>
+        <v>0.9997749268703225</v>
       </c>
       <c r="T28">
-        <v>0.9999604836108388</v>
+        <v>0.9999199757635789</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9989753932231412</v>
+      </c>
+      <c r="D29">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="E29">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="F29">
+        <v>0.9989753932231412</v>
+      </c>
+      <c r="G29">
+        <v>1.000683095234274</v>
+      </c>
+      <c r="H29">
+        <v>0.9994364611034718</v>
+      </c>
+      <c r="I29">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="J29">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="K29">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="L29">
+        <v>1.000256150711641</v>
+      </c>
+      <c r="M29">
+        <v>0.9996157719673913</v>
+      </c>
+      <c r="N29">
+        <v>0.9996157719673913</v>
+      </c>
+      <c r="O29">
+        <v>0.9995560016794182</v>
+      </c>
+      <c r="P29">
+        <v>0.9998292315488079</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998292315488079</v>
+      </c>
+      <c r="R29">
+        <v>0.9999359613395162</v>
+      </c>
+      <c r="S29">
+        <v>0.9999359613395162</v>
+      </c>
+      <c r="T29">
+        <v>0.9999772336159684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9982216458091032</v>
+      </c>
+      <c r="D30">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="E30">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="F30">
+        <v>0.9982216458091032</v>
+      </c>
+      <c r="G30">
+        <v>1.001185584223738</v>
+      </c>
+      <c r="H30">
+        <v>0.9990218994863453</v>
+      </c>
+      <c r="I30">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="J30">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="K30">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="L30">
+        <v>1.000444590715282</v>
+      </c>
+      <c r="M30">
+        <v>0.9993331182621927</v>
+      </c>
+      <c r="N30">
+        <v>0.9993331182621927</v>
+      </c>
+      <c r="O30">
+        <v>0.9992293786702436</v>
+      </c>
+      <c r="P30">
+        <v>0.9997036090798893</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997036090798893</v>
+      </c>
+      <c r="R30">
+        <v>0.9998888544887375</v>
+      </c>
+      <c r="S30">
+        <v>0.9998888544887375</v>
+      </c>
+      <c r="T30">
+        <v>0.9999604836108388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001493718835537</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9996265725234511</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9996265725234511</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.001493718835537</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9990041999460266</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000821551308823</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9996265725234511</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9996265725234511</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9996265725234511</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9996265725234511</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000560145679494</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000560145679494</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.00064728088927</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.00024895462748</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.00024895462748</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000093359101473</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000093359101473</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000033197943457</v>
       </c>
     </row>
